--- a/outcome/appendix/forecast/Dengue fever.xlsx
+++ b/outcome/appendix/forecast/Dengue fever.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>713.009955058072</v>
+        <v>635.122588729701</v>
       </c>
       <c r="C2" t="n">
-        <v>-4152.8705788543</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-4152.8705788543</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6063.53322008346</v>
+        <v>5064.49731771624</v>
       </c>
       <c r="F2" t="n">
-        <v>6063.53322008346</v>
+        <v>6972.85178226809</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>642.009955058072</v>
+        <v>564.122588729701</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>726.605108327635</v>
+        <v>697.350017445074</v>
       </c>
       <c r="C3" t="n">
-        <v>-4474.56458034544</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-4474.56458034544</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>5577.09272934458</v>
+        <v>5698.96876254141</v>
       </c>
       <c r="F3" t="n">
-        <v>5577.09272934458</v>
+        <v>7943.19212167376</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="n">
-        <v>709.605108327635</v>
+        <v>680.350017445074</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>692.396073230164</v>
+        <v>2008.6068000089</v>
       </c>
       <c r="C4" t="n">
-        <v>-4372.1757762287</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-4372.1757762287</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>5782.93156196875</v>
+        <v>12122.5917072368</v>
       </c>
       <c r="F4" t="n">
-        <v>5782.93156196875</v>
+        <v>18196.2719833291</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>16</v>
       </c>
       <c r="I4" t="n">
-        <v>676.396073230164</v>
+        <v>1992.6068000089</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>711.70854823546</v>
+        <v>5804.6930046121</v>
       </c>
       <c r="C5" t="n">
-        <v>-4168.1363709572</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-4168.1363709572</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5777.21218807322</v>
+        <v>22592.1051865831</v>
       </c>
       <c r="F5" t="n">
-        <v>5777.21218807322</v>
+        <v>25119.0942717176</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>705.70854823546</v>
+        <v>5798.6930046121</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>756.30477522257</v>
+        <v>6637.75536976231</v>
       </c>
       <c r="C6" t="n">
-        <v>-4279.94442361197</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-4279.94442361197</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>6191.25019855985</v>
+        <v>31242.2939779539</v>
       </c>
       <c r="F6" t="n">
-        <v>6191.25019855985</v>
+        <v>32402.7982260235</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>752.30477522257</v>
+        <v>6633.75536976231</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>808.366789764683</v>
+        <v>1248.8583687398</v>
       </c>
       <c r="C7" t="n">
-        <v>-4136.9215307672</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-4136.9215307672</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>5831.13577693889</v>
+        <v>15873.0445426154</v>
       </c>
       <c r="F7" t="n">
-        <v>5831.13577693889</v>
+        <v>28431.3781435099</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>804.366789764683</v>
+        <v>1244.8583687398</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>893.14494381725</v>
+        <v>1031.1675016085</v>
       </c>
       <c r="C8" t="n">
-        <v>-3893.17237156752</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-3893.17237156752</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>6023.53715715012</v>
+        <v>13867.7701162602</v>
       </c>
       <c r="F8" t="n">
-        <v>6023.53715715012</v>
+        <v>24096.2037113465</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>55</v>
       </c>
       <c r="I8" t="n">
-        <v>838.14494381725</v>
+        <v>976.167501608502</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>1264.23675523871</v>
+        <v>2956.61943534222</v>
       </c>
       <c r="C9" t="n">
-        <v>-3797.21302868146</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-3797.21302868146</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>6002.62820165487</v>
+        <v>20100.070140062</v>
       </c>
       <c r="F9" t="n">
-        <v>6002.62820165487</v>
+        <v>30795.502964326</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>55</v>
       </c>
       <c r="I9" t="n">
-        <v>1209.23675523871</v>
+        <v>2901.61943534222</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>3142.81925540616</v>
+        <v>7249.69767758913</v>
       </c>
       <c r="C10" t="n">
-        <v>-2445.28014813452</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-2445.28014813452</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>8040.31324485529</v>
+        <v>23747.8397336667</v>
       </c>
       <c r="F10" t="n">
-        <v>8040.31324485529</v>
+        <v>25159.3100141792</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>247</v>
       </c>
       <c r="I10" t="n">
-        <v>2895.81925540616</v>
+        <v>7002.69767758913</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>4186.70364879203</v>
+        <v>7822.66256399372</v>
       </c>
       <c r="C11" t="n">
-        <v>-922.748929887785</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-922.748929887785</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>9294.57530204502</v>
+        <v>23126.6429991018</v>
       </c>
       <c r="F11" t="n">
-        <v>9294.57530204502</v>
+        <v>24401.182540824</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>287</v>
       </c>
       <c r="I11" t="n">
-        <v>3899.70364879203</v>
+        <v>7535.66256399372</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1385.93093785032</v>
+        <v>1390.07830746648</v>
       </c>
       <c r="C12" t="n">
-        <v>-3634.52331247364</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-3634.52331247364</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>6475.13659155814</v>
+        <v>29696.8331489344</v>
       </c>
       <c r="F12" t="n">
-        <v>6475.13659155814</v>
+        <v>32470.4862103655</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>1322.93093785032</v>
+        <v>1327.07830746648</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>778.431531160599</v>
+        <v>933.498644054709</v>
       </c>
       <c r="C13" t="n">
-        <v>-4383.21005622498</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-4383.21005622498</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>5745.75188534833</v>
+        <v>20217.5701125826</v>
       </c>
       <c r="F13" t="n">
-        <v>5745.75188534833</v>
+        <v>26659.6087192522</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>769.431531160599</v>
+        <v>924.498644054709</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>789.610021947347</v>
+        <v>3667.59408496225</v>
       </c>
       <c r="C14" t="n">
-        <v>-4180.64590956429</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-4180.64590956429</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>5923.54790795723</v>
+        <v>20768.9114376401</v>
       </c>
       <c r="F14" t="n">
-        <v>5923.54790795723</v>
+        <v>23974.7868897672</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>784.610021947347</v>
+        <v>3662.59408496225</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>773.853224287683</v>
+        <v>6364.29256252095</v>
       </c>
       <c r="C15" t="n">
-        <v>-4293.70220884342</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-4293.70220884342</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>5774.34060377572</v>
+        <v>22202.3710309316</v>
       </c>
       <c r="F15" t="n">
-        <v>5774.34060377572</v>
+        <v>25843.9718796711</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>771.853224287683</v>
+        <v>6362.29256252095</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>805.748965224285</v>
+        <v>1911.62374455012</v>
       </c>
       <c r="C16" t="n">
-        <v>-4336.90795674835</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-4336.90795674835</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>5674.54569177494</v>
+        <v>23636.1829613344</v>
       </c>
       <c r="F16" t="n">
-        <v>5674.54569177494</v>
+        <v>29777.6647786878</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>805.748965224285</v>
+        <v>1911.62374455012</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>820.001157875367</v>
+        <v>652.075737321117</v>
       </c>
       <c r="C17" t="n">
-        <v>-4274.54047965837</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-4274.54047965837</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>5585.59474731519</v>
+        <v>21015.5634868779</v>
       </c>
       <c r="F17" t="n">
-        <v>5585.59474731519</v>
+        <v>25414.5259052196</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>816.001157875367</v>
+        <v>648.075737321117</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>851.705600242543</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>-4112.20692326191</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-4112.20692326191</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>5897.76211323762</v>
+        <v>17780.025122146</v>
       </c>
       <c r="F18" t="n">
-        <v>5897.76211323762</v>
+        <v>23095.9969692654</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,10 +960,10 @@
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>846.705600242543</v>
+        <v>-5</v>
       </c>
       <c r="J18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>899.719007743916</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-4181.77184249603</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-4181.77184249603</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>5711.49740903878</v>
+        <v>20512.2620293173</v>
       </c>
       <c r="F19" t="n">
-        <v>5711.49740903878</v>
+        <v>26238.7231905335</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,10 +992,10 @@
         <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>891.719007743916</v>
+        <v>-8</v>
       </c>
       <c r="J19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>986.783441658172</v>
+        <v>2947.54717506492</v>
       </c>
       <c r="C20" t="n">
-        <v>-3580.79951182353</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-3580.79951182353</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6021.24289401056</v>
+        <v>22912.2431475558</v>
       </c>
       <c r="F20" t="n">
-        <v>6021.24289401056</v>
+        <v>29911.0495386431</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>983.783441658172</v>
+        <v>2944.54717506492</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>1372.57409919705</v>
+        <v>6416.17243428632</v>
       </c>
       <c r="C21" t="n">
-        <v>-3678.49654336878</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-3678.49654336878</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>6456.54080921901</v>
+        <v>23875.4363424613</v>
       </c>
       <c r="F21" t="n">
-        <v>6456.54080921901</v>
+        <v>30549.8158298252</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>1369.57409919705</v>
+        <v>6413.17243428632</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>3281.16248225219</v>
+        <v>5489.44064011038</v>
       </c>
       <c r="C22" t="n">
-        <v>-1979.00954429623</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-1979.00954429623</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>8244.66706374706</v>
+        <v>22494.9640803263</v>
       </c>
       <c r="F22" t="n">
-        <v>8244.66706374706</v>
+        <v>27184.1859283921</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>3277.16248225219</v>
+        <v>5485.44064011038</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>4310.39877649206</v>
+        <v>2204.18908248379</v>
       </c>
       <c r="C23" t="n">
-        <v>-706.565087424276</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-706.565087424276</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>9791.09786218241</v>
+        <v>19814.9509972196</v>
       </c>
       <c r="F23" t="n">
-        <v>9791.09786218241</v>
+        <v>24663.5356219516</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>4304.39877649206</v>
+        <v>2198.18908248379</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1459.80127088293</v>
+        <v>1149.79187811887</v>
       </c>
       <c r="C24" t="n">
-        <v>-3465.54244991113</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-3465.54244991113</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>6240.40041019291</v>
+        <v>21387.2266103163</v>
       </c>
       <c r="F24" t="n">
-        <v>6240.40041019291</v>
+        <v>29827.5057234009</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>1454.80127088293</v>
+        <v>1144.79187811887</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>874.271294879498</v>
+        <v>4058.79041179538</v>
       </c>
       <c r="C25" t="n">
-        <v>-4033.45051801748</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-4033.45051801748</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>5771.47262488428</v>
+        <v>22560.2941609404</v>
       </c>
       <c r="F25" t="n">
-        <v>5771.47262488428</v>
+        <v>29019.739086718</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>871.271294879498</v>
+        <v>4055.79041179538</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>906.746726380525</v>
+        <v>6595.55529673727</v>
       </c>
       <c r="C26" t="n">
-        <v>-4381.49234645762</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-4381.49234645762</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>5884.65421728071</v>
+        <v>23653.558874562</v>
       </c>
       <c r="F26" t="n">
-        <v>5884.65421728071</v>
+        <v>29584.6984744773</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>906.746726380525</v>
+        <v>6595.55529673727</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>901.386070082909</v>
+        <v>1834.2187681724</v>
       </c>
       <c r="C27" t="n">
-        <v>-4163.21166617896</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-4163.21166617896</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>6277.85240289969</v>
+        <v>22650.6505317439</v>
       </c>
       <c r="F27" t="n">
-        <v>6277.85240289969</v>
+        <v>25646.2462571474</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>901.386070082909</v>
+        <v>1834.2187681724</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>918.670732521236</v>
+        <v>993.71691083081</v>
       </c>
       <c r="C28" t="n">
-        <v>-3852.88024825336</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-3852.88024825336</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>5576.63070719288</v>
+        <v>21428.8218468053</v>
       </c>
       <c r="F28" t="n">
-        <v>5576.63070719288</v>
+        <v>26462.6980048206</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>916.670732521236</v>
+        <v>991.71691083081</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>927.793030471268</v>
+        <v>277.739937468788</v>
       </c>
       <c r="C29" t="n">
-        <v>-3775.35806887687</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-3775.35806887687</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>6125.33785030793</v>
+        <v>21246.7406122033</v>
       </c>
       <c r="F29" t="n">
-        <v>6125.33785030793</v>
+        <v>26363.4869538983</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>927.793030471268</v>
+        <v>277.739937468788</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>946.782785525017</v>
+        <v>273.090054731535</v>
       </c>
       <c r="C30" t="n">
-        <v>-4237.81974431888</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-4237.81974431888</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>6347.66450812601</v>
+        <v>21626.3737174152</v>
       </c>
       <c r="F30" t="n">
-        <v>6347.66450812601</v>
+        <v>25807.2282267882</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>944.782785525017</v>
+        <v>271.090054731535</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>991.171046046931</v>
+        <v>2554.89586230251</v>
       </c>
       <c r="C31" t="n">
-        <v>-4275.31461239789</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-4275.31461239789</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>5961.357457467</v>
+        <v>22970.0070825264</v>
       </c>
       <c r="F31" t="n">
-        <v>5961.357457467</v>
+        <v>29179.3994819906</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>990.171046046931</v>
+        <v>2553.89586230251</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>1081.13769999196</v>
+        <v>5793.3975563366</v>
       </c>
       <c r="C32" t="n">
-        <v>-3997.74677062094</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-3997.74677062094</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>6511.55045584401</v>
+        <v>22671.338364655</v>
       </c>
       <c r="F32" t="n">
-        <v>6511.55045584401</v>
+        <v>26067.8005944431</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>1078.13769999196</v>
+        <v>5790.3975563366</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>1482.02352168464</v>
+        <v>6922.63350853071</v>
       </c>
       <c r="C33" t="n">
-        <v>-3474.97884309511</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-3474.97884309511</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>6481.35361809562</v>
+        <v>22071.0843473673</v>
       </c>
       <c r="F33" t="n">
-        <v>6481.35361809562</v>
+        <v>26373.7709980465</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1481.02352168464</v>
+        <v>6921.63350853071</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>3419.29406286659</v>
+        <v>1998.34620120935</v>
       </c>
       <c r="C34" t="n">
-        <v>-1562.85105945895</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-1562.85105945895</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>8314.23322337706</v>
+        <v>21407.0276108318</v>
       </c>
       <c r="F34" t="n">
-        <v>8314.23322337706</v>
+        <v>26221.5921011021</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>28</v>
       </c>
       <c r="I34" t="n">
-        <v>3391.29406286659</v>
+        <v>1970.34620120935</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>4432.12766407041</v>
+        <v>2156.37386319104</v>
       </c>
       <c r="C35" t="n">
-        <v>-661.76267516815</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-661.76267516815</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>9572.06042078893</v>
+        <v>21667.5887040911</v>
       </c>
       <c r="F35" t="n">
-        <v>9572.06042078893</v>
+        <v>25996.7643906681</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>326</v>
       </c>
       <c r="I35" t="n">
-        <v>4106.12766407041</v>
+        <v>1830.37386319104</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1533.49680370787</v>
+        <v>4439.0740307485</v>
       </c>
       <c r="C36" t="n">
-        <v>-3217.17927038612</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-3217.17927038612</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>6826.78829743205</v>
+        <v>22838.0073364754</v>
       </c>
       <c r="F36" t="n">
-        <v>6826.78829743205</v>
+        <v>29680.107590592</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>174</v>
       </c>
       <c r="I36" t="n">
-        <v>1359.49680370787</v>
+        <v>4265.0740307485</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>971.054274336282</v>
+        <v>6545.78791231483</v>
       </c>
       <c r="C37" t="n">
-        <v>-4148.31642754387</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-4148.31642754387</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>5808.36649475815</v>
+        <v>22826.9581222481</v>
       </c>
       <c r="F37" t="n">
-        <v>5808.36649475815</v>
+        <v>26665.9187203473</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>11</v>
       </c>
       <c r="I37" t="n">
-        <v>960.054274336282</v>
+        <v>6534.78791231483</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>1024.66591662389</v>
+        <v>1830.25951406569</v>
       </c>
       <c r="C38" t="n">
-        <v>-3855.56494046348</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-3855.56494046348</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>6275.34074838225</v>
+        <v>23022.8541198671</v>
       </c>
       <c r="F38" t="n">
-        <v>6275.34074838225</v>
+        <v>28826.7013386076</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>1023.66591662389</v>
+        <v>1829.25951406569</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>1029.09467987908</v>
+        <v>1001.93801210573</v>
       </c>
       <c r="C39" t="n">
-        <v>-3683.23271302551</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-3683.23271302551</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>6049.74746179116</v>
+        <v>21864.0938410888</v>
       </c>
       <c r="F39" t="n">
-        <v>6049.74746179116</v>
+        <v>26355.0659023911</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>11</v>
       </c>
       <c r="I39" t="n">
-        <v>1018.09467987908</v>
+        <v>990.938012105734</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>1031.14889858007</v>
+        <v>1519.78893300904</v>
       </c>
       <c r="C40" t="n">
-        <v>-4052.64836899289</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-4052.64836899289</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>5950.4801269169</v>
+        <v>22396.16867372</v>
       </c>
       <c r="F40" t="n">
-        <v>5950.4801269169</v>
+        <v>27786.5856756944</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>7</v>
       </c>
       <c r="I40" t="n">
-        <v>1024.14889858007</v>
+        <v>1512.78893300904</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>1035.08518824274</v>
+        <v>3335.78853494665</v>
       </c>
       <c r="C41" t="n">
-        <v>-3665.83311542145</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-3665.83311542145</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>6165.15659549433</v>
+        <v>23341.2216398416</v>
       </c>
       <c r="F41" t="n">
-        <v>6165.15659549433</v>
+        <v>29237.2378506127</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>9</v>
       </c>
       <c r="I41" t="n">
-        <v>1026.08518824274</v>
+        <v>3326.78853494665</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>1041.55779337487</v>
+        <v>5625.63789599743</v>
       </c>
       <c r="C42" t="n">
-        <v>-4332.60742371652</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-4332.60742371652</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>6328.74569660797</v>
+        <v>22672.0650058361</v>
       </c>
       <c r="F42" t="n">
-        <v>6328.74569660797</v>
+        <v>26265.9681658155</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>21</v>
       </c>
       <c r="I42" t="n">
-        <v>1020.55779337487</v>
+        <v>5604.63789599743</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>1082.75043851466</v>
+        <v>1627.82331017784</v>
       </c>
       <c r="C43" t="n">
-        <v>-3697.99728698227</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-3697.99728698227</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>6031.45448324544</v>
+        <v>22637.731103928</v>
       </c>
       <c r="F43" t="n">
-        <v>6031.45448324544</v>
+        <v>26410.9371707214</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>55</v>
       </c>
       <c r="I43" t="n">
-        <v>1027.75043851466</v>
+        <v>1572.82331017784</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>1176.22176603264</v>
+        <v>708.441499847049</v>
       </c>
       <c r="C44" t="n">
-        <v>-4074.17090344576</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-4074.17090344576</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>6161.34752921081</v>
+        <v>21909.6105297171</v>
       </c>
       <c r="F44" t="n">
-        <v>6161.34752921081</v>
+        <v>25984.7185234548</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>1604</v>
       </c>
       <c r="I44" t="n">
-        <v>-427.77823396736</v>
+        <v>-895.558500152951</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>1592.55974547704</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>-3713.11933612182</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-3713.11933612182</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>6504.17286028769</v>
+        <v>22251.105259301</v>
       </c>
       <c r="F45" t="n">
-        <v>6504.17286028769</v>
+        <v>27146.3837168203</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>4198</v>
       </c>
       <c r="I45" t="n">
-        <v>-2605.44025452296</v>
+        <v>-4198</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>3557.15257923171</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>-1423.47752520992</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-1423.47752520992</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>8807.20414638176</v>
+        <v>22501.5342837832</v>
       </c>
       <c r="F46" t="n">
-        <v>8807.20414638176</v>
+        <v>27050.1088514445</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>6494</v>
       </c>
       <c r="I46" t="n">
-        <v>-2936.84742076829</v>
+        <v>-6494</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>4551.88770108051</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>-280.073064527925</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-280.073064527925</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>9424.30022608639</v>
+        <v>22751.6503070585</v>
       </c>
       <c r="F47" t="n">
-        <v>9424.30022608639</v>
+        <v>28651.1074375649</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>5388</v>
       </c>
       <c r="I47" t="n">
-        <v>-836.11229891949</v>
+        <v>-5388</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>1607.08041288201</v>
+        <v>3402.5231888037</v>
       </c>
       <c r="C48" t="n">
-        <v>-3484.26664025888</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-3484.26664025888</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>6851.93014632359</v>
+        <v>22908.869516207</v>
       </c>
       <c r="F48" t="n">
-        <v>6851.93014632359</v>
+        <v>27032.6637658282</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,10 +1920,10 @@
         <v>1685</v>
       </c>
       <c r="I48" t="n">
-        <v>-77.9195871179897</v>
+        <v>1717.5231888037</v>
       </c>
       <c r="J48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>1068.80551278857</v>
+        <v>4324.52627472922</v>
       </c>
       <c r="C49" t="n">
-        <v>-3849.63398156386</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-3849.63398156386</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>6260.87846771798</v>
+        <v>22261.456322678</v>
       </c>
       <c r="F49" t="n">
-        <v>6260.87846771798</v>
+        <v>27196.32385362</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>154</v>
       </c>
       <c r="I49" t="n">
-        <v>914.805512788565</v>
+        <v>4170.52627472922</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Dengue fever.xlsx
+++ b/outcome/appendix/forecast/Dengue fever.xlsx
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>635.122588729701</v>
+        <v>817.942145736892</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>564.122588729701</v>
+        <v>746.942145736892</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,7 +459,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>697.350017445074</v>
+        <v>860.670408729624</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -468,10 +468,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>5698.96876254141</v>
+        <v>8386.0428641169</v>
       </c>
       <c r="F3" t="n">
-        <v>7943.19212167376</v>
+        <v>10977.5293603918</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="n">
-        <v>680.350017445074</v>
+        <v>843.670408729624</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,7 +491,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>2008.6068000089</v>
+        <v>849.359048292623</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -500,10 +500,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>12122.5917072368</v>
+        <v>25513.2648999557</v>
       </c>
       <c r="F4" t="n">
-        <v>18196.2719833291</v>
+        <v>26908.2500649081</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>16</v>
       </c>
       <c r="I4" t="n">
-        <v>1992.6068000089</v>
+        <v>833.359048292623</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>5804.6930046121</v>
+        <v>843.848037384715</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -532,10 +532,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>22592.1051865831</v>
+        <v>27351.5775271252</v>
       </c>
       <c r="F5" t="n">
-        <v>25119.0942717176</v>
+        <v>28486.2124924389</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>5798.6930046121</v>
+        <v>837.848037384715</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,7 +555,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>6637.75536976231</v>
+        <v>862.728007911249</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>31242.2939779539</v>
+        <v>27350.9843615233</v>
       </c>
       <c r="F6" t="n">
-        <v>32402.7982260235</v>
+        <v>29156.4756064634</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>6633.75536976231</v>
+        <v>858.728007911249</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>1248.8583687398</v>
+        <v>966.960345046587</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>15873.0445426154</v>
+        <v>25839.678497908</v>
       </c>
       <c r="F7" t="n">
-        <v>28431.3781435099</v>
+        <v>28990.5192554174</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>1244.8583687398</v>
+        <v>962.960345046587</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>1031.1675016085</v>
+        <v>1661.17118826683</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -628,10 +628,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>13867.7701162602</v>
+        <v>23718.9165026055</v>
       </c>
       <c r="F8" t="n">
-        <v>24096.2037113465</v>
+        <v>27094.6982794367</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>55</v>
       </c>
       <c r="I8" t="n">
-        <v>976.167501608502</v>
+        <v>1606.17118826683</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>2956.61943534222</v>
+        <v>5699.32275799102</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>20100.070140062</v>
+        <v>25291.3220739735</v>
       </c>
       <c r="F9" t="n">
-        <v>30795.502964326</v>
+        <v>28144.7891359056</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>55</v>
       </c>
       <c r="I9" t="n">
-        <v>2901.61943534222</v>
+        <v>5644.32275799102</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>7249.69767758913</v>
+        <v>8458.03959980724</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>23747.8397336667</v>
+        <v>27190.4088858839</v>
       </c>
       <c r="F10" t="n">
-        <v>25159.3100141792</v>
+        <v>28537.6067241244</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>247</v>
       </c>
       <c r="I10" t="n">
-        <v>7002.69767758913</v>
+        <v>8211.03959980724</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>7822.66256399372</v>
+        <v>2353.31275021888</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>23126.6429991018</v>
+        <v>28760.1630072013</v>
       </c>
       <c r="F11" t="n">
-        <v>24401.182540824</v>
+        <v>30506.0224755143</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>287</v>
       </c>
       <c r="I11" t="n">
-        <v>7535.66256399372</v>
+        <v>2066.31275021888</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1390.07830746648</v>
+        <v>748.418476765822</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>29696.8331489344</v>
+        <v>26448.7299638065</v>
       </c>
       <c r="F12" t="n">
-        <v>32470.4862103655</v>
+        <v>29221.6844930635</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>1327.07830746648</v>
+        <v>685.418476765822</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>933.498644054709</v>
+        <v>2359.76341907902</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>20217.5701125826</v>
+        <v>24717.6806801242</v>
       </c>
       <c r="F13" t="n">
-        <v>26659.6087192522</v>
+        <v>26525.9675782682</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>924.498644054709</v>
+        <v>2350.76341907902</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>3667.59408496225</v>
+        <v>6789.31259520084</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>20768.9114376401</v>
+        <v>25286.5452346114</v>
       </c>
       <c r="F14" t="n">
-        <v>23974.7868897672</v>
+        <v>26808.963606062</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>3662.59408496225</v>
+        <v>6784.31259520084</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>6364.29256252095</v>
+        <v>7734.10899759924</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -852,10 +852,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>22202.3710309316</v>
+        <v>27917.8180984696</v>
       </c>
       <c r="F15" t="n">
-        <v>25843.9718796711</v>
+        <v>29893.2946629904</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>6362.29256252095</v>
+        <v>7732.10899759924</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,7 +875,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>1911.62374455012</v>
+        <v>1148.53978385253</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -884,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>23636.1829613344</v>
+        <v>28498.4863641265</v>
       </c>
       <c r="F16" t="n">
-        <v>29777.6647786878</v>
+        <v>30819.8970134641</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1911.62374455012</v>
+        <v>1148.53978385253</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,7 +907,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>652.075737321117</v>
+        <v>835.676733375404</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>21015.5634868779</v>
+        <v>26858.6216333894</v>
       </c>
       <c r="F17" t="n">
-        <v>25414.5259052196</v>
+        <v>29310.7315662531</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>648.075737321117</v>
+        <v>831.676733375404</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,7 +939,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>2509.40261775401</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -948,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>17780.025122146</v>
+        <v>25835.5882868606</v>
       </c>
       <c r="F18" t="n">
-        <v>23095.9969692654</v>
+        <v>28772.1115823634</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,10 +960,10 @@
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>-5</v>
+        <v>2504.40261775401</v>
       </c>
       <c r="J18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -971,7 +971,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>7253.50464198855</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -980,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>20512.2620293173</v>
+        <v>26019.9759634807</v>
       </c>
       <c r="F19" t="n">
-        <v>26238.7231905335</v>
+        <v>28174.2165527149</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,10 +992,10 @@
         <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>-8</v>
+        <v>7245.50464198855</v>
       </c>
       <c r="J19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2947.54717506492</v>
+        <v>8568.01616338875</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>22912.2431475558</v>
+        <v>27413.5133042071</v>
       </c>
       <c r="F20" t="n">
-        <v>29911.0495386431</v>
+        <v>29814.7648308991</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>2944.54717506492</v>
+        <v>8565.01616338875</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>6416.17243428632</v>
+        <v>1268.58642770444</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>23875.4363424613</v>
+        <v>27680.7290317536</v>
       </c>
       <c r="F21" t="n">
-        <v>30549.8158298252</v>
+        <v>29739.2514511745</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>6413.17243428632</v>
+        <v>1265.58642770444</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>5489.44064011038</v>
+        <v>1566.54816429478</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1076,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>22494.9640803263</v>
+        <v>26793.8979811473</v>
       </c>
       <c r="F22" t="n">
-        <v>27184.1859283921</v>
+        <v>30591.3385716606</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>5485.44064011038</v>
+        <v>1562.54816429478</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>2204.18908248379</v>
+        <v>3687.32545442112</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>19814.9509972196</v>
+        <v>25847.7666184127</v>
       </c>
       <c r="F23" t="n">
-        <v>24663.5356219516</v>
+        <v>29277.8772617967</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>2198.18908248379</v>
+        <v>3681.32545442112</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1149.79187811887</v>
+        <v>6399.57497597284</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1140,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>21387.2266103163</v>
+        <v>25330.9786885301</v>
       </c>
       <c r="F24" t="n">
-        <v>29827.5057234009</v>
+        <v>28262.2822575894</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>1144.79187811887</v>
+        <v>6394.57497597284</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,7 +1163,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>4058.79041179538</v>
+        <v>7848.46003734564</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1172,10 +1172,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>22560.2941609404</v>
+        <v>26941.5911641336</v>
       </c>
       <c r="F25" t="n">
-        <v>29019.739086718</v>
+        <v>28866.5145890803</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>4055.79041179538</v>
+        <v>7845.46003734564</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,7 +1195,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>6595.55529673727</v>
+        <v>1069.97111331375</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1204,10 +1204,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>23653.558874562</v>
+        <v>27936.137022234</v>
       </c>
       <c r="F26" t="n">
-        <v>29584.6984744773</v>
+        <v>30141.1634335818</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>6595.55529673727</v>
+        <v>1069.97111331375</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>1834.2187681724</v>
+        <v>673.320512712977</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>22650.6505317439</v>
+        <v>27314.8759781171</v>
       </c>
       <c r="F27" t="n">
-        <v>25646.2462571474</v>
+        <v>29348.8778263072</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1834.2187681724</v>
+        <v>673.320512712977</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,7 +1259,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>993.71691083081</v>
+        <v>2507.8065680696</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>21428.8218468053</v>
+        <v>26671.5713616757</v>
       </c>
       <c r="F28" t="n">
-        <v>26462.6980048206</v>
+        <v>29125.216439608</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>991.71691083081</v>
+        <v>2505.8065680696</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>277.739937468788</v>
+        <v>6723.86536610251</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>21246.7406122033</v>
+        <v>25652.7814486684</v>
       </c>
       <c r="F29" t="n">
-        <v>26363.4869538983</v>
+        <v>28803.5832545506</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>277.739937468788</v>
+        <v>6723.86536610251</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>273.090054731535</v>
+        <v>7883.41562774932</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>21626.3737174152</v>
+        <v>27319.0532210982</v>
       </c>
       <c r="F30" t="n">
-        <v>25807.2282267882</v>
+        <v>29030.2747739211</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>271.090054731535</v>
+        <v>7881.41562774932</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,7 +1355,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>2554.89586230251</v>
+        <v>1074.2101755812</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1364,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>22970.0070825264</v>
+        <v>27796.1387837937</v>
       </c>
       <c r="F31" t="n">
-        <v>29179.3994819906</v>
+        <v>29848.6287861395</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>2553.89586230251</v>
+        <v>1073.2101755812</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>5793.3975563366</v>
+        <v>720.804249650832</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1396,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>22671.338364655</v>
+        <v>27146.1772730664</v>
       </c>
       <c r="F32" t="n">
-        <v>26067.8005944431</v>
+        <v>29173.8121696593</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>5790.3975563366</v>
+        <v>717.804249650832</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>6922.63350853071</v>
+        <v>2706.92916133566</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1428,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>22071.0843473673</v>
+        <v>26490.5697775581</v>
       </c>
       <c r="F33" t="n">
-        <v>26373.7709980465</v>
+        <v>29090.4460326349</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>6921.63350853071</v>
+        <v>2705.92916133566</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>1998.34620120935</v>
+        <v>7330.62275774991</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>21407.0276108318</v>
+        <v>26042.3562523126</v>
       </c>
       <c r="F34" t="n">
-        <v>26221.5921011021</v>
+        <v>29038.5811745567</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>28</v>
       </c>
       <c r="I34" t="n">
-        <v>1970.34620120935</v>
+        <v>7302.62275774991</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>2156.37386319104</v>
+        <v>9072.031262771</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1492,10 +1492,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>21667.5887040911</v>
+        <v>27387.330820839</v>
       </c>
       <c r="F35" t="n">
-        <v>25996.7643906681</v>
+        <v>30088.7838000293</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>326</v>
       </c>
       <c r="I35" t="n">
-        <v>1830.37386319104</v>
+        <v>8746.031262771</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>4439.0740307485</v>
+        <v>1231.015531428</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>22838.0073364754</v>
+        <v>27702.02433481</v>
       </c>
       <c r="F36" t="n">
-        <v>29680.107590592</v>
+        <v>30114.4842989086</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>174</v>
       </c>
       <c r="I36" t="n">
-        <v>4265.0740307485</v>
+        <v>1057.015531428</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,7 +1547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>6545.78791231483</v>
+        <v>627.6366382347</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1556,10 +1556,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>22826.9581222481</v>
+        <v>27196.3975926689</v>
       </c>
       <c r="F37" t="n">
-        <v>26665.9187203473</v>
+        <v>29139.1308491206</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>11</v>
       </c>
       <c r="I37" t="n">
-        <v>6534.78791231483</v>
+        <v>616.6366382347</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,7 +1579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>1830.25951406569</v>
+        <v>2508.20775852307</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>23022.8541198671</v>
+        <v>26660.1981349244</v>
       </c>
       <c r="F38" t="n">
-        <v>28826.7013386076</v>
+        <v>29231.8184176067</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>1829.25951406569</v>
+        <v>2507.20775852307</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,7 +1611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>1001.93801210573</v>
+        <v>6437.12481757583</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1620,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>21864.0938410888</v>
+        <v>26123.8880309284</v>
       </c>
       <c r="F39" t="n">
-        <v>26355.0659023911</v>
+        <v>28636.0126325875</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>11</v>
       </c>
       <c r="I39" t="n">
-        <v>990.938012105734</v>
+        <v>6426.12481757583</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,7 +1643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>1519.78893300904</v>
+        <v>7886.4552581561</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>22396.16867372</v>
+        <v>27114.9258670391</v>
       </c>
       <c r="F40" t="n">
-        <v>27786.5856756944</v>
+        <v>29410.8143180527</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>7</v>
       </c>
       <c r="I40" t="n">
-        <v>1512.78893300904</v>
+        <v>7879.4552581561</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,7 +1675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>3335.78853494665</v>
+        <v>1051.66931992096</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1684,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>23341.2216398416</v>
+        <v>27663.6184444851</v>
       </c>
       <c r="F41" t="n">
-        <v>29237.2378506127</v>
+        <v>30161.0868529462</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>9</v>
       </c>
       <c r="I41" t="n">
-        <v>3326.78853494665</v>
+        <v>1042.66931992096</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,7 +1707,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>5625.63789599743</v>
+        <v>669.323881457603</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1716,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>22672.0650058361</v>
+        <v>27717.2735540276</v>
       </c>
       <c r="F42" t="n">
-        <v>26265.9681658155</v>
+        <v>29913.6616237004</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>21</v>
       </c>
       <c r="I42" t="n">
-        <v>5604.63789599743</v>
+        <v>648.323881457603</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>1627.82331017784</v>
+        <v>2512.44417635221</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1748,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>22637.731103928</v>
+        <v>27077.5165393674</v>
       </c>
       <c r="F43" t="n">
-        <v>26410.9371707214</v>
+        <v>29175.8644323549</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>55</v>
       </c>
       <c r="I43" t="n">
-        <v>1572.82331017784</v>
+        <v>2457.44417635221</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,7 +1771,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>708.441499847049</v>
+        <v>6484.60507144326</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>21909.6105297171</v>
+        <v>26636.1325350145</v>
       </c>
       <c r="F44" t="n">
-        <v>25984.7185234548</v>
+        <v>28987.4625787071</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,10 +1792,10 @@
         <v>1604</v>
       </c>
       <c r="I44" t="n">
-        <v>-895.558500152951</v>
+        <v>4880.60507144326</v>
       </c>
       <c r="J44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -1803,7 +1803,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>8101.6190590376</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>22251.105259301</v>
+        <v>27076.6595635934</v>
       </c>
       <c r="F45" t="n">
-        <v>27146.3837168203</v>
+        <v>29350.7181045267</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,10 +1824,10 @@
         <v>4198</v>
       </c>
       <c r="I45" t="n">
-        <v>-4198</v>
+        <v>3903.6190590376</v>
       </c>
       <c r="J45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
@@ -1835,7 +1835,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1953.94530590777</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1844,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>22501.5342837832</v>
+        <v>27690.6871155319</v>
       </c>
       <c r="F46" t="n">
-        <v>27050.1088514445</v>
+        <v>29924.1997442081</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>6494</v>
       </c>
       <c r="I46" t="n">
-        <v>-6494</v>
+        <v>-4540.05469409223</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,7 +1867,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1851.31083476664</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1876,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>22751.6503070585</v>
+        <v>27233.3681663152</v>
       </c>
       <c r="F47" t="n">
-        <v>28651.1074375649</v>
+        <v>29739.6654318192</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>5388</v>
       </c>
       <c r="I47" t="n">
-        <v>-5388</v>
+        <v>-3536.68916523336</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,7 +1899,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>3402.5231888037</v>
+        <v>2669.25682892677</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1908,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>22908.869516207</v>
+        <v>27038.357717323</v>
       </c>
       <c r="F48" t="n">
-        <v>27032.6637658282</v>
+        <v>29258.3799142418</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>1685</v>
       </c>
       <c r="I48" t="n">
-        <v>1717.5231888037</v>
+        <v>984.256828926773</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1931,7 +1931,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>4324.52627472922</v>
+        <v>6391.45373193083</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>22261.456322678</v>
+        <v>26700.0360809351</v>
       </c>
       <c r="F49" t="n">
-        <v>27196.32385362</v>
+        <v>28855.9825907052</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>154</v>
       </c>
       <c r="I49" t="n">
-        <v>4170.52627472922</v>
+        <v>6237.45373193083</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Dengue fever.xlsx
+++ b/outcome/appendix/forecast/Dengue fever.xlsx
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>817.942145736892</v>
+        <v>847.075291566498</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>746.942145736892</v>
+        <v>776.075291566498</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,7 +459,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>860.670408729624</v>
+        <v>913.113600822468</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -468,10 +468,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>8386.0428641169</v>
+        <v>14513.4058476909</v>
       </c>
       <c r="F3" t="n">
-        <v>10977.5293603918</v>
+        <v>19161.3945939318</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="n">
-        <v>843.670408729624</v>
+        <v>896.113600822468</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,7 +491,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>849.359048292623</v>
+        <v>873.343687398966</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -500,10 +500,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>25513.2648999557</v>
+        <v>26401.577264679</v>
       </c>
       <c r="F4" t="n">
-        <v>26908.2500649081</v>
+        <v>27599.6457141782</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>16</v>
       </c>
       <c r="I4" t="n">
-        <v>833.359048292623</v>
+        <v>857.343687398966</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>843.848037384715</v>
+        <v>804.368036961116</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -532,10 +532,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>27351.5775271252</v>
+        <v>28470.7165698227</v>
       </c>
       <c r="F5" t="n">
-        <v>28486.2124924389</v>
+        <v>30785.0787579297</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>837.848037384715</v>
+        <v>798.368036961116</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,7 +555,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>862.728007911249</v>
+        <v>768.158517901678</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>27350.9843615233</v>
+        <v>25817.0056005935</v>
       </c>
       <c r="F6" t="n">
-        <v>29156.4756064634</v>
+        <v>30448.9070976511</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>858.728007911249</v>
+        <v>764.158517901678</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>966.960345046587</v>
+        <v>872.896989631306</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>25839.678497908</v>
+        <v>22385.3310348867</v>
       </c>
       <c r="F7" t="n">
-        <v>28990.5192554174</v>
+        <v>28189.9995906823</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>962.960345046587</v>
+        <v>868.896989631306</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>1661.17118826683</v>
+        <v>2801.44181433936</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -628,10 +628,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>23718.9165026055</v>
+        <v>20255.2268980556</v>
       </c>
       <c r="F8" t="n">
-        <v>27094.6982794367</v>
+        <v>28374.4394431433</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>55</v>
       </c>
       <c r="I8" t="n">
-        <v>1606.17118826683</v>
+        <v>2746.44181433936</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5699.32275799102</v>
+        <v>7491.71855079946</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>25291.3220739735</v>
+        <v>27136.9027609581</v>
       </c>
       <c r="F9" t="n">
-        <v>28144.7891359056</v>
+        <v>29472.2004348286</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>55</v>
       </c>
       <c r="I9" t="n">
-        <v>5644.32275799102</v>
+        <v>7436.71855079946</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>8458.03959980724</v>
+        <v>9404.14348768957</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>27190.4088858839</v>
+        <v>28821.876482196</v>
       </c>
       <c r="F10" t="n">
-        <v>28537.6067241244</v>
+        <v>30253.8200463862</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>247</v>
       </c>
       <c r="I10" t="n">
-        <v>8211.03959980724</v>
+        <v>9157.14348768957</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2353.31275021888</v>
+        <v>2591.93046816105</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>28760.1630072013</v>
+        <v>26270.697049455</v>
       </c>
       <c r="F11" t="n">
-        <v>30506.0224755143</v>
+        <v>29757.58235898</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>287</v>
       </c>
       <c r="I11" t="n">
-        <v>2066.31275021888</v>
+        <v>2304.93046816105</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>748.418476765822</v>
+        <v>767.057694474272</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>26448.7299638065</v>
+        <v>25780.4898323606</v>
       </c>
       <c r="F12" t="n">
-        <v>29221.6844930635</v>
+        <v>31551.6628322063</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>685.418476765822</v>
+        <v>704.057694474272</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>2359.76341907902</v>
+        <v>535.672843741601</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>24717.6806801242</v>
+        <v>24171.247471249</v>
       </c>
       <c r="F13" t="n">
-        <v>26525.9675782682</v>
+        <v>27685.3278601056</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>2350.76341907902</v>
+        <v>526.672843741601</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>6789.31259520084</v>
+        <v>4365.58240912582</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>25286.5452346114</v>
+        <v>25897.9714762342</v>
       </c>
       <c r="F14" t="n">
-        <v>26808.963606062</v>
+        <v>30842.352333515</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>6784.31259520084</v>
+        <v>4360.58240912582</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>7734.10899759924</v>
+        <v>6649.45576702342</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -852,10 +852,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>27917.8180984696</v>
+        <v>26020.6368805509</v>
       </c>
       <c r="F15" t="n">
-        <v>29893.2946629904</v>
+        <v>29477.8385117311</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>7732.10899759924</v>
+        <v>6647.45576702342</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,7 +875,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>1148.53978385253</v>
+        <v>1423.87363090197</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -884,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>28498.4863641265</v>
+        <v>26687.9705043815</v>
       </c>
       <c r="F16" t="n">
-        <v>30819.8970134641</v>
+        <v>30376.4199761066</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1148.53978385253</v>
+        <v>1423.87363090197</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,7 +907,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>835.676733375404</v>
+        <v>943.351465622423</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>26858.6216333894</v>
+        <v>24702.979546397</v>
       </c>
       <c r="F17" t="n">
-        <v>29310.7315662531</v>
+        <v>29762.0712390468</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>831.676733375404</v>
+        <v>939.351465622423</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,7 +939,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>2509.40261775401</v>
+        <v>718.42914235533</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -948,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>25835.5882868606</v>
+        <v>25430.0917514203</v>
       </c>
       <c r="F18" t="n">
-        <v>28772.1115823634</v>
+        <v>29922.4235328341</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>2504.40261775401</v>
+        <v>713.42914235533</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,7 +971,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>7253.50464198855</v>
+        <v>781.3152704005</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -980,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>26019.9759634807</v>
+        <v>25180.7344960282</v>
       </c>
       <c r="F19" t="n">
-        <v>28174.2165527149</v>
+        <v>29343.6285646175</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>7245.50464198855</v>
+        <v>773.3152704005</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>8568.01616338875</v>
+        <v>2699.21538642316</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>27413.5133042071</v>
+        <v>26257.9966818849</v>
       </c>
       <c r="F20" t="n">
-        <v>29814.7648308991</v>
+        <v>30083.4652522355</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>8565.01616338875</v>
+        <v>2696.21538642316</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>1268.58642770444</v>
+        <v>8531.07580120204</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>27680.7290317536</v>
+        <v>25661.5366437233</v>
       </c>
       <c r="F21" t="n">
-        <v>29739.2514511745</v>
+        <v>30109.0007396044</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>1265.58642770444</v>
+        <v>8528.07580120204</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>1566.54816429478</v>
+        <v>9405.56444144889</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1076,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>26793.8979811473</v>
+        <v>24804.5553362376</v>
       </c>
       <c r="F22" t="n">
-        <v>30591.3385716606</v>
+        <v>29928.7391221569</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>1562.54816429478</v>
+        <v>9401.56444144889</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>3687.32545442112</v>
+        <v>2539.72336276682</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>25847.7666184127</v>
+        <v>24609.6417805165</v>
       </c>
       <c r="F23" t="n">
-        <v>29277.8772617967</v>
+        <v>29277.6443746191</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>3681.32545442112</v>
+        <v>2533.72336276682</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>6399.57497597284</v>
+        <v>1077.0379066697</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1140,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>25330.9786885301</v>
+        <v>25293.0547257383</v>
       </c>
       <c r="F24" t="n">
-        <v>28262.2822575894</v>
+        <v>29425.6441928015</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>6394.57497597284</v>
+        <v>1072.0379066697</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,7 +1163,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>7848.46003734564</v>
+        <v>3933.71187954029</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1172,10 +1172,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>26941.5911641336</v>
+        <v>25587.3756709538</v>
       </c>
       <c r="F25" t="n">
-        <v>28866.5145890803</v>
+        <v>29747.2250291626</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>7845.46003734564</v>
+        <v>3930.71187954029</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,7 +1195,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>1069.97111331375</v>
+        <v>7868.60398471358</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1204,10 +1204,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>27936.137022234</v>
+        <v>25588.3392147415</v>
       </c>
       <c r="F26" t="n">
-        <v>30141.1634335818</v>
+        <v>29434.6378270221</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1069.97111331375</v>
+        <v>7868.60398471358</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>673.320512712977</v>
+        <v>2289.08889670286</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>27314.8759781171</v>
+        <v>24945.1300952832</v>
       </c>
       <c r="F27" t="n">
-        <v>29348.8778263072</v>
+        <v>29331.2938714023</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>673.320512712977</v>
+        <v>2289.08889670286</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,7 +1259,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>2507.8065680696</v>
+        <v>989.688073776308</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>26671.5713616757</v>
+        <v>24534.0665065867</v>
       </c>
       <c r="F28" t="n">
-        <v>29125.216439608</v>
+        <v>29193.0590513298</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>2505.8065680696</v>
+        <v>987.688073776308</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>6723.86536610251</v>
+        <v>943.165888389078</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>25652.7814486684</v>
+        <v>24467.4471720606</v>
       </c>
       <c r="F29" t="n">
-        <v>28803.5832545506</v>
+        <v>28105.725864882</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>6723.86536610251</v>
+        <v>943.165888389078</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>7883.41562774932</v>
+        <v>928.671761649338</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>27319.0532210982</v>
+        <v>25092.7539750966</v>
       </c>
       <c r="F30" t="n">
-        <v>29030.2747739211</v>
+        <v>29202.2959619171</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>7881.41562774932</v>
+        <v>926.671761649338</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,7 +1355,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>1074.2101755812</v>
+        <v>840.297476512401</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1364,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>27796.1387837937</v>
+        <v>25109.3099550197</v>
       </c>
       <c r="F31" t="n">
-        <v>29848.6287861395</v>
+        <v>29510.2188365378</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>1073.2101755812</v>
+        <v>839.297476512401</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>720.804249650832</v>
+        <v>893.831089053108</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1396,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>27146.1772730664</v>
+        <v>24923.594318524</v>
       </c>
       <c r="F32" t="n">
-        <v>29173.8121696593</v>
+        <v>29318.3205080882</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>717.804249650832</v>
+        <v>890.831089053108</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2706.92916133566</v>
+        <v>1301.82244061276</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1428,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>26490.5697775581</v>
+        <v>24203.1944124103</v>
       </c>
       <c r="F33" t="n">
-        <v>29090.4460326349</v>
+        <v>29427.9826162046</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>2705.92916133566</v>
+        <v>1300.82244061276</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>7330.62275774991</v>
+        <v>2058.33662052074</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>26042.3562523126</v>
+        <v>24741.8132591975</v>
       </c>
       <c r="F34" t="n">
-        <v>29038.5811745567</v>
+        <v>29307.8800528495</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>28</v>
       </c>
       <c r="I34" t="n">
-        <v>7302.62275774991</v>
+        <v>2030.33662052074</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>9072.031262771</v>
+        <v>2326.67549831816</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1492,10 +1492,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>27387.330820839</v>
+        <v>24642.2408479387</v>
       </c>
       <c r="F35" t="n">
-        <v>30088.7838000293</v>
+        <v>28025.1887817003</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>326</v>
       </c>
       <c r="I35" t="n">
-        <v>8746.031262771</v>
+        <v>2000.67549831816</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1231.015531428</v>
+        <v>1154.62487137429</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>27702.02433481</v>
+        <v>24886.7603865702</v>
       </c>
       <c r="F36" t="n">
-        <v>30114.4842989086</v>
+        <v>28911.4927533708</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>174</v>
       </c>
       <c r="I36" t="n">
-        <v>1057.015531428</v>
+        <v>980.624871374293</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,7 +1547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>627.6366382347</v>
+        <v>643.547902309514</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1556,10 +1556,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>27196.3975926689</v>
+        <v>24588.7282504884</v>
       </c>
       <c r="F37" t="n">
-        <v>29139.1308491206</v>
+        <v>29317.5157455403</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>11</v>
       </c>
       <c r="I37" t="n">
-        <v>616.6366382347</v>
+        <v>632.547902309514</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,7 +1579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2508.20775852307</v>
+        <v>670.384209072374</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>26660.1981349244</v>
+        <v>24533.7892821377</v>
       </c>
       <c r="F38" t="n">
-        <v>29231.8184176067</v>
+        <v>28857.9096069961</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>2507.20775852307</v>
+        <v>669.384209072374</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,7 +1611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>6437.12481757583</v>
+        <v>2439.18315279665</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1620,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>26123.8880309284</v>
+        <v>24685.7345448222</v>
       </c>
       <c r="F39" t="n">
-        <v>28636.0126325875</v>
+        <v>28323.3144748625</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>11</v>
       </c>
       <c r="I39" t="n">
-        <v>6426.12481757583</v>
+        <v>2428.18315279665</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,7 +1643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>7886.4552581561</v>
+        <v>6648.76327740294</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>27114.9258670391</v>
+        <v>25109.3353830864</v>
       </c>
       <c r="F40" t="n">
-        <v>29410.8143180527</v>
+        <v>29330.7072155352</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>7</v>
       </c>
       <c r="I40" t="n">
-        <v>7879.4552581561</v>
+        <v>6641.76327740294</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,7 +1675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>1051.66931992096</v>
+        <v>8372.88607673883</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1684,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>27663.6184444851</v>
+        <v>25017.7242472758</v>
       </c>
       <c r="F41" t="n">
-        <v>30161.0868529462</v>
+        <v>29546.0433652543</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>9</v>
       </c>
       <c r="I41" t="n">
-        <v>1042.66931992096</v>
+        <v>8363.88607673883</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,7 +1707,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>669.323881457603</v>
+        <v>1421.1656865157</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1716,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>27717.2735540276</v>
+        <v>24594.8169040304</v>
       </c>
       <c r="F42" t="n">
-        <v>29913.6616237004</v>
+        <v>28629.0448971896</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>21</v>
       </c>
       <c r="I42" t="n">
-        <v>648.323881457603</v>
+        <v>1400.1656865157</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>2512.44417635221</v>
+        <v>938.3109931658</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1748,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>27077.5165393674</v>
+        <v>24246.6876735933</v>
       </c>
       <c r="F43" t="n">
-        <v>29175.8644323549</v>
+        <v>28976.7527383391</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>55</v>
       </c>
       <c r="I43" t="n">
-        <v>2457.44417635221</v>
+        <v>883.3109931658</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,7 +1771,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>6484.60507144326</v>
+        <v>2594.93497206554</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>26636.1325350145</v>
+        <v>24537.2933156225</v>
       </c>
       <c r="F44" t="n">
-        <v>28987.4625787071</v>
+        <v>28900.461024956</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>1604</v>
       </c>
       <c r="I44" t="n">
-        <v>4880.60507144326</v>
+        <v>990.934972065544</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1803,7 +1803,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>8101.6190590376</v>
+        <v>7738.79860852168</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>27076.6595635934</v>
+        <v>24829.7007011125</v>
       </c>
       <c r="F45" t="n">
-        <v>29350.7181045267</v>
+        <v>29153.4726335583</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>4198</v>
       </c>
       <c r="I45" t="n">
-        <v>3903.6190590376</v>
+        <v>3540.79860852168</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1835,7 +1835,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>1953.94530590777</v>
+        <v>9953.52449308995</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1844,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>27690.6871155319</v>
+        <v>24835.8724402211</v>
       </c>
       <c r="F46" t="n">
-        <v>29924.1997442081</v>
+        <v>29398.1708991756</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,10 +1856,10 @@
         <v>6494</v>
       </c>
       <c r="I46" t="n">
-        <v>-4540.05469409223</v>
+        <v>3459.52449308995</v>
       </c>
       <c r="J46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -1867,7 +1867,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>1851.31083476664</v>
+        <v>2594.70073627843</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1876,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>27233.3681663152</v>
+        <v>24232.4896612571</v>
       </c>
       <c r="F47" t="n">
-        <v>29739.6654318192</v>
+        <v>28452.720926765</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>5388</v>
       </c>
       <c r="I47" t="n">
-        <v>-3536.68916523336</v>
+        <v>-2793.29926372157</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,7 +1899,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>2669.25682892677</v>
+        <v>1074.34416803354</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1908,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>27038.357717323</v>
+        <v>24368.6256054778</v>
       </c>
       <c r="F48" t="n">
-        <v>29258.3799142418</v>
+        <v>28701.3595740803</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,10 +1920,10 @@
         <v>1685</v>
       </c>
       <c r="I48" t="n">
-        <v>984.256828926773</v>
+        <v>-610.655831966462</v>
       </c>
       <c r="J48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -1931,7 +1931,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>6391.45373193083</v>
+        <v>3830.93016461334</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>26700.0360809351</v>
+        <v>24951.6954901552</v>
       </c>
       <c r="F49" t="n">
-        <v>28855.9825907052</v>
+        <v>29407.2011896377</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>154</v>
       </c>
       <c r="I49" t="n">
-        <v>6237.45373193083</v>
+        <v>3676.93016461334</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Dengue fever.xlsx
+++ b/outcome/appendix/forecast/Dengue fever.xlsx
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>847.075291566498</v>
+        <v>1348.43676383954</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>776.075291566498</v>
+        <v>1277.43676383954</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,7 +459,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>913.113600822468</v>
+        <v>3263.45027847868</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -468,10 +468,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>14513.4058476909</v>
+        <v>12703.0057313591</v>
       </c>
       <c r="F3" t="n">
-        <v>19161.3945939318</v>
+        <v>15122.9210831771</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="n">
-        <v>896.113600822468</v>
+        <v>3246.45027847868</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,7 +491,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>873.343687398966</v>
+        <v>6727.77931821473</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -500,10 +500,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>26401.577264679</v>
+        <v>25091.512825572</v>
       </c>
       <c r="F4" t="n">
-        <v>27599.6457141782</v>
+        <v>25876.1368353081</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>16</v>
       </c>
       <c r="I4" t="n">
-        <v>857.343687398966</v>
+        <v>6711.77931821473</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>804.368036961116</v>
+        <v>7864.09962171712</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -532,10 +532,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>28470.7165698227</v>
+        <v>32650.297038679</v>
       </c>
       <c r="F5" t="n">
-        <v>30785.0787579297</v>
+        <v>33938.7080440603</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>798.368036961116</v>
+        <v>7858.09962171712</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,7 +555,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>768.158517901678</v>
+        <v>1155.11838242148</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>25817.0056005935</v>
+        <v>7195.73049020123</v>
       </c>
       <c r="F6" t="n">
-        <v>30448.9070976511</v>
+        <v>10232.2916464397</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>764.158517901678</v>
+        <v>1151.11838242148</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>872.896989631306</v>
+        <v>932.751883233866</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>22385.3310348867</v>
+        <v>7614.28813961975</v>
       </c>
       <c r="F7" t="n">
-        <v>28189.9995906823</v>
+        <v>10872.4203313635</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>868.896989631306</v>
+        <v>928.751883233866</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2801.44181433936</v>
+        <v>3209.13514881461</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -628,10 +628,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>20255.2268980556</v>
+        <v>13869.5853284291</v>
       </c>
       <c r="F8" t="n">
-        <v>28374.4394431433</v>
+        <v>20591.0321142797</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>55</v>
       </c>
       <c r="I8" t="n">
-        <v>2746.44181433936</v>
+        <v>3154.13514881461</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>7491.71855079946</v>
+        <v>8209.37128249705</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>27136.9027609581</v>
+        <v>31230.0299009597</v>
       </c>
       <c r="F9" t="n">
-        <v>29472.2004348286</v>
+        <v>33749.3880488204</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>55</v>
       </c>
       <c r="I9" t="n">
-        <v>7436.71855079946</v>
+        <v>8154.37128249705</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>9404.14348768957</v>
+        <v>7516.76619380271</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>28821.876482196</v>
+        <v>23687.6268511795</v>
       </c>
       <c r="F10" t="n">
-        <v>30253.8200463862</v>
+        <v>24345.7929650413</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>247</v>
       </c>
       <c r="I10" t="n">
-        <v>9157.14348768957</v>
+        <v>7269.76619380271</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2591.93046816105</v>
+        <v>1995.04607104675</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>26270.697049455</v>
+        <v>10638.2065480806</v>
       </c>
       <c r="F11" t="n">
-        <v>29757.58235898</v>
+        <v>20246.4277758568</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>287</v>
       </c>
       <c r="I11" t="n">
-        <v>2304.93046816105</v>
+        <v>1708.04607104675</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>767.057694474272</v>
+        <v>852.2170110228</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>25780.4898323606</v>
+        <v>9382.04893499745</v>
       </c>
       <c r="F12" t="n">
-        <v>31551.6628322063</v>
+        <v>13575.9771646383</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>704.057694474272</v>
+        <v>789.2170110228</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>535.672843741601</v>
+        <v>3320.8433348155</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>24171.247471249</v>
+        <v>13326.3538200268</v>
       </c>
       <c r="F13" t="n">
-        <v>27685.3278601056</v>
+        <v>19879.5952995047</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>526.672843741601</v>
+        <v>3311.8433348155</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>4365.58240912582</v>
+        <v>9007.1654216666</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>25897.9714762342</v>
+        <v>33746.0184968992</v>
       </c>
       <c r="F14" t="n">
-        <v>30842.352333515</v>
+        <v>35759.8940437384</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>4360.58240912582</v>
+        <v>9002.1654216666</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>6649.45576702342</v>
+        <v>6625.17762202127</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -852,10 +852,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>26020.6368805509</v>
+        <v>23896.7484168105</v>
       </c>
       <c r="F15" t="n">
-        <v>29477.8385117311</v>
+        <v>25065.2225719392</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>6647.45576702342</v>
+        <v>6623.17762202127</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,7 +875,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>1423.87363090197</v>
+        <v>1158.71501000854</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -884,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>26687.9705043815</v>
+        <v>17023.7858874541</v>
       </c>
       <c r="F16" t="n">
-        <v>30376.4199761066</v>
+        <v>23284.9461645488</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1423.87363090197</v>
+        <v>1158.71501000854</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,7 +907,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>943.351465622423</v>
+        <v>754.237708288305</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>24702.979546397</v>
+        <v>10821.7714434294</v>
       </c>
       <c r="F17" t="n">
-        <v>29762.0712390468</v>
+        <v>21875.2250199708</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>939.351465622423</v>
+        <v>750.237708288305</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,7 +939,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>718.42914235533</v>
+        <v>2698.36685005788</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -948,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>25430.0917514203</v>
+        <v>13147.4890212582</v>
       </c>
       <c r="F18" t="n">
-        <v>29922.4235328341</v>
+        <v>23875.1332647571</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>713.42914235533</v>
+        <v>2693.36685005788</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,7 +971,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>781.3152704005</v>
+        <v>6189.33404293409</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -980,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>25180.7344960282</v>
+        <v>27924.5142652093</v>
       </c>
       <c r="F19" t="n">
-        <v>29343.6285646175</v>
+        <v>34596.8752096084</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>773.3152704005</v>
+        <v>6181.33404293409</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2699.21538642316</v>
+        <v>6620.15336250975</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>26257.9966818849</v>
+        <v>24998.7234951586</v>
       </c>
       <c r="F20" t="n">
-        <v>30083.4652522355</v>
+        <v>32742.0086077017</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>2696.21538642316</v>
+        <v>6617.15336250975</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>8531.07580120204</v>
+        <v>1386.19983333856</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>25661.5366437233</v>
+        <v>22071.3299115735</v>
       </c>
       <c r="F21" t="n">
-        <v>30109.0007396044</v>
+        <v>24031.6129942365</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>8528.07580120204</v>
+        <v>1383.19983333856</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>9405.56444144889</v>
+        <v>1656.51316448345</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1076,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>24804.5553362376</v>
+        <v>12067.8674496259</v>
       </c>
       <c r="F22" t="n">
-        <v>29928.7391221569</v>
+        <v>22974.9617428151</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>9401.56444144889</v>
+        <v>1652.51316448345</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>2539.72336276682</v>
+        <v>3810.27670134389</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>24609.6417805165</v>
+        <v>15641.0545844013</v>
       </c>
       <c r="F23" t="n">
-        <v>29277.6443746191</v>
+        <v>21376.6663461314</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>2533.72336276682</v>
+        <v>3804.27670134389</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1077.0379066697</v>
+        <v>5860.31508522644</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1140,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>25293.0547257383</v>
+        <v>22808.7427758654</v>
       </c>
       <c r="F24" t="n">
-        <v>29425.6441928015</v>
+        <v>30636.5872533553</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>1072.0379066697</v>
+        <v>5855.31508522644</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,7 +1163,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3933.71187954029</v>
+        <v>6231.53766153042</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1172,10 +1172,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>25587.3756709538</v>
+        <v>23397.8199591553</v>
       </c>
       <c r="F25" t="n">
-        <v>29747.2250291626</v>
+        <v>26707.6964385398</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>3930.71187954029</v>
+        <v>6228.53766153042</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,7 +1195,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>7868.60398471358</v>
+        <v>1497.50785326657</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1204,10 +1204,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>25588.3392147415</v>
+        <v>22247.561295162</v>
       </c>
       <c r="F26" t="n">
-        <v>29434.6378270221</v>
+        <v>23903.533552121</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>7868.60398471358</v>
+        <v>1497.50785326657</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2289.08889670286</v>
+        <v>763.285774170593</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>24945.1300952832</v>
+        <v>17093.2059702413</v>
       </c>
       <c r="F27" t="n">
-        <v>29331.2938714023</v>
+        <v>23818.4952487449</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2289.08889670286</v>
+        <v>763.285774170593</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,7 +1259,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>989.688073776308</v>
+        <v>1304.54417791047</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>24534.0665065867</v>
+        <v>18375.8087589859</v>
       </c>
       <c r="F28" t="n">
-        <v>29193.0590513298</v>
+        <v>24800.6010308366</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>987.688073776308</v>
+        <v>1302.54417791047</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>943.165888389078</v>
+        <v>3319.87715134709</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>24467.4471720606</v>
+        <v>22273.2351246384</v>
       </c>
       <c r="F29" t="n">
-        <v>28105.725864882</v>
+        <v>29651.6612216029</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>943.165888389078</v>
+        <v>3319.87715134709</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>928.671761649338</v>
+        <v>6542.43208418454</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>25092.7539750966</v>
+        <v>24479.8715226128</v>
       </c>
       <c r="F30" t="n">
-        <v>29202.2959619171</v>
+        <v>33992.7246406058</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>926.671761649338</v>
+        <v>6540.43208418454</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,7 +1355,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>840.297476512401</v>
+        <v>2342.53596650542</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1364,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>25109.3099550197</v>
+        <v>22813.8023951594</v>
       </c>
       <c r="F31" t="n">
-        <v>29510.2188365378</v>
+        <v>24686.5743360259</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>839.297476512401</v>
+        <v>2341.53596650542</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>893.831089053108</v>
+        <v>810.823872653607</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1396,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>24923.594318524</v>
+        <v>20790.4845644776</v>
       </c>
       <c r="F32" t="n">
-        <v>29318.3205080882</v>
+        <v>23963.8332806051</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>890.831089053108</v>
+        <v>807.823872653607</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>1301.82244061276</v>
+        <v>1748.75866326943</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1428,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>24203.1944124103</v>
+        <v>19650.5155603907</v>
       </c>
       <c r="F33" t="n">
-        <v>29427.9826162046</v>
+        <v>25959.4475849441</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1300.82244061276</v>
+        <v>1747.75866326943</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>2058.33662052074</v>
+        <v>3931.17656408343</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24741.8132591975</v>
+        <v>23524.5785714403</v>
       </c>
       <c r="F34" t="n">
-        <v>29307.8800528495</v>
+        <v>32762.9040551245</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>28</v>
       </c>
       <c r="I34" t="n">
-        <v>2030.33662052074</v>
+        <v>3903.17656408343</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>2326.67549831816</v>
+        <v>6880.54559723956</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1492,10 +1492,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>24642.2408479387</v>
+        <v>23592.0062718561</v>
       </c>
       <c r="F35" t="n">
-        <v>28025.1887817003</v>
+        <v>33102.419074126</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>326</v>
       </c>
       <c r="I35" t="n">
-        <v>2000.67549831816</v>
+        <v>6554.54559723956</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1154.62487137429</v>
+        <v>1929.37857598937</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>24886.7603865702</v>
+        <v>22922.0033863214</v>
       </c>
       <c r="F36" t="n">
-        <v>28911.4927533708</v>
+        <v>27547.3760309504</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>174</v>
       </c>
       <c r="I36" t="n">
-        <v>980.624871374293</v>
+        <v>1755.37857598937</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,7 +1547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>643.547902309514</v>
+        <v>717.604936276686</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1556,10 +1556,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24588.7282504884</v>
+        <v>21826.6860014059</v>
       </c>
       <c r="F37" t="n">
-        <v>29317.5157455403</v>
+        <v>24707.6674058901</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>11</v>
       </c>
       <c r="I37" t="n">
-        <v>632.547902309514</v>
+        <v>706.604936276686</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,7 +1579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>670.384209072374</v>
+        <v>1464.27380013047</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>24533.7892821377</v>
+        <v>21619.1661017089</v>
       </c>
       <c r="F38" t="n">
-        <v>28857.9096069961</v>
+        <v>26144.3404225845</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>669.384209072374</v>
+        <v>1463.27380013047</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,7 +1611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2439.18315279665</v>
+        <v>3295.63742659734</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1620,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>24685.7345448222</v>
+        <v>23359.5951477188</v>
       </c>
       <c r="F39" t="n">
-        <v>28323.3144748625</v>
+        <v>34064.5343859721</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>11</v>
       </c>
       <c r="I39" t="n">
-        <v>2428.18315279665</v>
+        <v>3284.63742659734</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,7 +1643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>6648.76327740294</v>
+        <v>9543.40976542928</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>25109.3353830864</v>
+        <v>24111.0611936159</v>
       </c>
       <c r="F40" t="n">
-        <v>29330.7072155352</v>
+        <v>34504.5110774357</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>7</v>
       </c>
       <c r="I40" t="n">
-        <v>6641.76327740294</v>
+        <v>9536.40976542928</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,7 +1675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>8372.88607673883</v>
+        <v>6616.18791307788</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1684,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>25017.7242472758</v>
+        <v>23312.7423631619</v>
       </c>
       <c r="F41" t="n">
-        <v>29546.0433652543</v>
+        <v>30311.0985980416</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>9</v>
       </c>
       <c r="I41" t="n">
-        <v>8363.88607673883</v>
+        <v>6607.18791307788</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,7 +1707,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>1421.1656865157</v>
+        <v>1100.74878874321</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1716,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>24594.8169040304</v>
+        <v>22182.4788732081</v>
       </c>
       <c r="F42" t="n">
-        <v>28629.0448971896</v>
+        <v>25423.3522880118</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>21</v>
       </c>
       <c r="I42" t="n">
-        <v>1400.1656865157</v>
+        <v>1079.74878874321</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>938.3109931658</v>
+        <v>436.633414606704</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1748,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24246.6876735933</v>
+        <v>22272.2817465622</v>
       </c>
       <c r="F43" t="n">
-        <v>28976.7527383391</v>
+        <v>29420.2631275885</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>55</v>
       </c>
       <c r="I43" t="n">
-        <v>883.3109931658</v>
+        <v>381.633414606704</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,7 +1771,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>2594.93497206554</v>
+        <v>1752.69017110152</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>24537.2933156225</v>
+        <v>24121.7415344825</v>
       </c>
       <c r="F44" t="n">
-        <v>28900.461024956</v>
+        <v>34703.2309664211</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>1604</v>
       </c>
       <c r="I44" t="n">
-        <v>990.934972065544</v>
+        <v>148.690171101522</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1803,7 +1803,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>7738.79860852168</v>
+        <v>7951.55773844845</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>24829.7007011125</v>
+        <v>24066.5616955182</v>
       </c>
       <c r="F45" t="n">
-        <v>29153.4726335583</v>
+        <v>32514.3661272737</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>4198</v>
       </c>
       <c r="I45" t="n">
-        <v>3540.79860852168</v>
+        <v>3753.55773844845</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1835,7 +1835,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>9953.52449308995</v>
+        <v>7099.01892352359</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1844,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>24835.8724402211</v>
+        <v>23213.9053794913</v>
       </c>
       <c r="F46" t="n">
-        <v>29398.1708991756</v>
+        <v>31063.9819013666</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>6494</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.52449308995</v>
+        <v>605.018923523586</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1867,7 +1867,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>2594.70073627843</v>
+        <v>2349.55455588255</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1876,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>24232.4896612571</v>
+        <v>22251.581699133</v>
       </c>
       <c r="F47" t="n">
-        <v>28452.720926765</v>
+        <v>25002.0193669514</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>5388</v>
       </c>
       <c r="I47" t="n">
-        <v>-2793.29926372157</v>
+        <v>-3038.44544411745</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,7 +1899,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>1074.34416803354</v>
+        <v>727.914449456575</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1908,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>24368.6256054778</v>
+        <v>21961.4131075759</v>
       </c>
       <c r="F48" t="n">
-        <v>28701.3595740803</v>
+        <v>26478.5338429366</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>1685</v>
       </c>
       <c r="I48" t="n">
-        <v>-610.655831966462</v>
+        <v>-957.085550543425</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,7 +1931,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3830.93016461334</v>
+        <v>1407.25413300554</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>24951.6954901552</v>
+        <v>22881.6280922816</v>
       </c>
       <c r="F49" t="n">
-        <v>29407.2011896377</v>
+        <v>31609.7497138015</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>154</v>
       </c>
       <c r="I49" t="n">
-        <v>3676.93016461334</v>
+        <v>1253.25413300554</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Dengue fever.xlsx
+++ b/outcome/appendix/forecast/Dengue fever.xlsx
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>1348.43676383954</v>
+        <v>1191.38504439461</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>1277.43676383954</v>
+        <v>1120.38504439461</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,7 +459,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>3263.45027847868</v>
+        <v>3358.8611058431</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -468,10 +468,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>12703.0057313591</v>
+        <v>13467.4398630015</v>
       </c>
       <c r="F3" t="n">
-        <v>15122.9210831771</v>
+        <v>14801.3817790976</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="n">
-        <v>3246.45027847868</v>
+        <v>3341.8611058431</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,7 +491,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>6727.77931821473</v>
+        <v>6056.3807541683</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -500,10 +500,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>25091.512825572</v>
+        <v>21828.054427741</v>
       </c>
       <c r="F4" t="n">
-        <v>25876.1368353081</v>
+        <v>22463.0335359608</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>16</v>
       </c>
       <c r="I4" t="n">
-        <v>6711.77931821473</v>
+        <v>6040.3807541683</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>7864.09962171712</v>
+        <v>2599.94699580068</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -532,10 +532,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>32650.297038679</v>
+        <v>22375.2671745857</v>
       </c>
       <c r="F5" t="n">
-        <v>33938.7080440603</v>
+        <v>24431.4382167319</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>7858.09962171712</v>
+        <v>2593.94699580068</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,7 +555,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>1155.11838242148</v>
+        <v>1043.56264054131</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>7195.73049020123</v>
       </c>
       <c r="F6" t="n">
-        <v>10232.2916464397</v>
+        <v>19073.2397694448</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>1151.11838242148</v>
+        <v>1039.56264054131</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>932.751883233866</v>
+        <v>316.660633923603</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>7614.28813961975</v>
       </c>
       <c r="F7" t="n">
-        <v>10872.4203313635</v>
+        <v>16116.1767374236</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>928.751883233866</v>
+        <v>312.660633923603</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>3209.13514881461</v>
+        <v>71.7065288930303</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -628,10 +628,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>13869.5853284291</v>
+        <v>12466.0734855993</v>
       </c>
       <c r="F8" t="n">
-        <v>20591.0321142797</v>
+        <v>26497.0195308196</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>55</v>
       </c>
       <c r="I8" t="n">
-        <v>3154.13514881461</v>
+        <v>16.7065288930303</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>8209.37128249705</v>
+        <v>2414.5924929122</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>31230.0299009597</v>
+        <v>25569.0649193261</v>
       </c>
       <c r="F9" t="n">
-        <v>33749.3880488204</v>
+        <v>29999.6239315318</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>55</v>
       </c>
       <c r="I9" t="n">
-        <v>8154.37128249705</v>
+        <v>2359.5924929122</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>7516.76619380271</v>
+        <v>6142.75450592697</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>23687.6268511795</v>
+        <v>20827.9099980546</v>
       </c>
       <c r="F10" t="n">
-        <v>24345.7929650413</v>
+        <v>21931.6385339651</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>247</v>
       </c>
       <c r="I10" t="n">
-        <v>7269.76619380271</v>
+        <v>5895.75450592697</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1995.04607104675</v>
+        <v>7141.19007304129</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>10638.2065480806</v>
+        <v>19829.4510177317</v>
       </c>
       <c r="F11" t="n">
-        <v>20246.4277758568</v>
+        <v>21566.0167449097</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>287</v>
       </c>
       <c r="I11" t="n">
-        <v>1708.04607104675</v>
+        <v>6854.19007304129</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>852.2170110228</v>
+        <v>1315.53101214016</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>9382.04893499745</v>
+        <v>11281.3998187525</v>
       </c>
       <c r="F12" t="n">
-        <v>13575.9771646383</v>
+        <v>23205.6035641132</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>789.2170110228</v>
+        <v>1252.53101214016</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3320.8433348155</v>
+        <v>236.60539836619</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>13326.3538200268</v>
+        <v>15437.4435432971</v>
       </c>
       <c r="F13" t="n">
-        <v>19879.5952995047</v>
+        <v>21549.128096812</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>3311.8433348155</v>
+        <v>227.60539836619</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>9007.1654216666</v>
+        <v>939.77868500298</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>33746.0184968992</v>
+        <v>28429.3723497332</v>
       </c>
       <c r="F14" t="n">
-        <v>35759.8940437384</v>
+        <v>31428.978574503</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>9002.1654216666</v>
+        <v>934.77868500298</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>6625.17762202127</v>
+        <v>4568.33303113226</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -852,10 +852,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>23896.7484168105</v>
+        <v>20726.1017204175</v>
       </c>
       <c r="F15" t="n">
-        <v>25065.2225719392</v>
+        <v>22121.2776138844</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>6623.17762202127</v>
+        <v>4566.33303113226</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,7 +875,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>1158.71501000854</v>
+        <v>5977.32640290799</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -884,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>17023.7858874541</v>
+        <v>20541.8615653253</v>
       </c>
       <c r="F16" t="n">
-        <v>23284.9461645488</v>
+        <v>22191.8311042292</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1158.71501000854</v>
+        <v>5977.32640290799</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,7 +907,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>754.237708288305</v>
+        <v>1144.01269844316</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>10821.7714434294</v>
+        <v>17388.8135786825</v>
       </c>
       <c r="F17" t="n">
-        <v>21875.2250199708</v>
+        <v>23654.634904626</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>750.237708288305</v>
+        <v>1140.01269844316</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,7 +939,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>2698.36685005788</v>
+        <v>210.625959618647</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -948,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>13147.4890212582</v>
+        <v>18341.9754273268</v>
       </c>
       <c r="F18" t="n">
-        <v>23875.1332647571</v>
+        <v>22722.2251596791</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>2693.36685005788</v>
+        <v>205.625959618647</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,7 +971,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6189.33404293409</v>
+        <v>283.715929128045</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -980,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>27924.5142652093</v>
+        <v>19132.632628643</v>
       </c>
       <c r="F19" t="n">
-        <v>34596.8752096084</v>
+        <v>24666.9741024085</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>6181.33404293409</v>
+        <v>275.715929128045</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>6620.15336250975</v>
+        <v>2918.42761688871</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>24998.7234951586</v>
+        <v>20804.5415133189</v>
       </c>
       <c r="F20" t="n">
-        <v>32742.0086077017</v>
+        <v>24631.9293203727</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>6617.15336250975</v>
+        <v>2915.42761688871</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>1386.19983333856</v>
+        <v>5618.59262057752</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>22071.3299115735</v>
+        <v>20557.5103500969</v>
       </c>
       <c r="F21" t="n">
-        <v>24031.6129942365</v>
+        <v>22284.9183213146</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>1383.19983333856</v>
+        <v>5615.59262057752</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>1656.51316448345</v>
+        <v>3690.41876990376</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1076,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>12067.8674496259</v>
+        <v>19223.6434301487</v>
       </c>
       <c r="F22" t="n">
-        <v>22974.9617428151</v>
+        <v>21529.5327571722</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>1652.51316448345</v>
+        <v>3686.41876990376</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>3810.27670134389</v>
+        <v>2273.51277382501</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>15641.0545844013</v>
+        <v>18092.1362681969</v>
       </c>
       <c r="F23" t="n">
-        <v>21376.6663461314</v>
+        <v>22185.8214354945</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>3804.27670134389</v>
+        <v>2267.51277382501</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>5860.31508522644</v>
+        <v>912.614298532019</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1140,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>22808.7427758654</v>
+        <v>19776.3023839241</v>
       </c>
       <c r="F24" t="n">
-        <v>30636.5872533553</v>
+        <v>23133.1078859582</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>5855.31508522644</v>
+        <v>907.614298532019</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,7 +1163,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>6231.53766153042</v>
+        <v>603.808620733983</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1172,10 +1172,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>23397.8199591553</v>
+        <v>20233.6966262218</v>
       </c>
       <c r="F25" t="n">
-        <v>26707.6964385398</v>
+        <v>22234.9112370522</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>6228.53766153042</v>
+        <v>600.808620733983</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,7 +1195,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>1497.50785326657</v>
+        <v>783.30272784794</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1204,10 +1204,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>22247.561295162</v>
+        <v>21812.2720948004</v>
       </c>
       <c r="F26" t="n">
-        <v>23903.533552121</v>
+        <v>25175.4268025922</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1497.50785326657</v>
+        <v>783.30272784794</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>763.285774170593</v>
+        <v>2640.3839638883</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>17093.2059702413</v>
+        <v>19591.8718062622</v>
       </c>
       <c r="F27" t="n">
-        <v>23818.4952487449</v>
+        <v>22143.7983562157</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>763.285774170593</v>
+        <v>2640.3839638883</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,7 +1259,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>1304.54417791047</v>
+        <v>6351.95351353273</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>18375.8087589859</v>
+        <v>19423.7854649378</v>
       </c>
       <c r="F28" t="n">
-        <v>24800.6010308366</v>
+        <v>22936.6743322763</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>1302.54417791047</v>
+        <v>6349.95351353273</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>3319.87715134709</v>
+        <v>8468.78976193943</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>22273.2351246384</v>
+        <v>19722.5030903156</v>
       </c>
       <c r="F29" t="n">
-        <v>29651.6612216029</v>
+        <v>24701.2203405497</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>3319.87715134709</v>
+        <v>8468.78976193943</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>6542.43208418454</v>
+        <v>1837.92369231742</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>24479.8715226128</v>
+        <v>20638.4468676229</v>
       </c>
       <c r="F30" t="n">
-        <v>33992.7246406058</v>
+        <v>25239.8265707765</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>6540.43208418454</v>
+        <v>1835.92369231742</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,7 +1355,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>2342.53596650542</v>
+        <v>949.302270295295</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1364,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>22813.8023951594</v>
+        <v>20582.4002978606</v>
       </c>
       <c r="F31" t="n">
-        <v>24686.5743360259</v>
+        <v>24396.2321858933</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>2341.53596650542</v>
+        <v>948.302270295295</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>810.823872653607</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1396,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>20790.4845644776</v>
+        <v>20218.2952239959</v>
       </c>
       <c r="F32" t="n">
-        <v>23963.8332806051</v>
+        <v>22595.7530937135</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,10 +1408,10 @@
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>807.823872653607</v>
+        <v>-3</v>
       </c>
       <c r="J32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>1748.75866326943</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1428,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19650.5155603907</v>
+        <v>20088.0712133623</v>
       </c>
       <c r="F33" t="n">
-        <v>25959.4475849441</v>
+        <v>23876.6041293377</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,10 +1440,10 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1747.75866326943</v>
+        <v>-1</v>
       </c>
       <c r="J33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>3931.17656408343</v>
+        <v>4350.16702222249</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>23524.5785714403</v>
+        <v>20526.4728658412</v>
       </c>
       <c r="F34" t="n">
-        <v>32762.9040551245</v>
+        <v>24644.3886827271</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>28</v>
       </c>
       <c r="I34" t="n">
-        <v>3903.17656408343</v>
+        <v>4322.16702222249</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>6880.54559723956</v>
+        <v>7586.30929077945</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1492,10 +1492,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>23592.0062718561</v>
+        <v>20322.2795027108</v>
       </c>
       <c r="F35" t="n">
-        <v>33102.419074126</v>
+        <v>24660.0575186322</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>326</v>
       </c>
       <c r="I35" t="n">
-        <v>6554.54559723956</v>
+        <v>7260.30929077945</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1929.37857598937</v>
+        <v>4920.46337121135</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>22922.0033863214</v>
+        <v>20615.0821501577</v>
       </c>
       <c r="F36" t="n">
-        <v>27547.3760309504</v>
+        <v>23789.383790068</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>174</v>
       </c>
       <c r="I36" t="n">
-        <v>1755.37857598937</v>
+        <v>4746.46337121135</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,7 +1547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>717.604936276686</v>
+        <v>1003.59274785338</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1556,10 +1556,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>21826.6860014059</v>
+        <v>19726.707902785</v>
       </c>
       <c r="F37" t="n">
-        <v>24707.6674058901</v>
+        <v>22762.4587391996</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>11</v>
       </c>
       <c r="I37" t="n">
-        <v>706.604936276686</v>
+        <v>992.592747853376</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,7 +1579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>1464.27380013047</v>
+        <v>866.081215502176</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>21619.1661017089</v>
+        <v>20423.9252073437</v>
       </c>
       <c r="F38" t="n">
-        <v>26144.3404225845</v>
+        <v>24013.6622351163</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>1463.27380013047</v>
+        <v>865.081215502176</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,7 +1611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>3295.63742659734</v>
+        <v>1551.5536415866</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1620,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>23359.5951477188</v>
+        <v>20259.0092371542</v>
       </c>
       <c r="F39" t="n">
-        <v>34064.5343859721</v>
+        <v>24164.4880503427</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>11</v>
       </c>
       <c r="I39" t="n">
-        <v>3284.63742659734</v>
+        <v>1540.5536415866</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,7 +1643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>9543.40976542928</v>
+        <v>3780.03445696508</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24111.0611936159</v>
+        <v>20649.4130117327</v>
       </c>
       <c r="F40" t="n">
-        <v>34504.5110774357</v>
+        <v>25323.5544298541</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>7</v>
       </c>
       <c r="I40" t="n">
-        <v>9536.40976542928</v>
+        <v>3773.03445696508</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,7 +1675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>6616.18791307788</v>
+        <v>6138.04030827555</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1684,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>23312.7423631619</v>
+        <v>19898.6097169904</v>
       </c>
       <c r="F41" t="n">
-        <v>30311.0985980416</v>
+        <v>24062.7720078932</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>9</v>
       </c>
       <c r="I41" t="n">
-        <v>6607.18791307788</v>
+        <v>6129.04030827555</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,7 +1707,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>1100.74878874321</v>
+        <v>1742.48126081694</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1716,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>22182.4788732081</v>
+        <v>20527.045795781</v>
       </c>
       <c r="F42" t="n">
-        <v>25423.3522880118</v>
+        <v>24246.9898388947</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>21</v>
       </c>
       <c r="I42" t="n">
-        <v>1079.74878874321</v>
+        <v>1721.48126081694</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>436.633414606704</v>
+        <v>573.16653496096</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1748,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>22272.2817465622</v>
+        <v>20651.5724305013</v>
       </c>
       <c r="F43" t="n">
-        <v>29420.2631275885</v>
+        <v>24746.6904707391</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>55</v>
       </c>
       <c r="I43" t="n">
-        <v>381.633414606704</v>
+        <v>518.16653496096</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,7 +1771,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>1752.69017110152</v>
+        <v>523.827021305418</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>24121.7415344825</v>
+        <v>20535.9570384218</v>
       </c>
       <c r="F44" t="n">
-        <v>34703.2309664211</v>
+        <v>24248.240647046</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,10 +1792,10 @@
         <v>1604</v>
       </c>
       <c r="I44" t="n">
-        <v>148.690171101522</v>
+        <v>-1080.17297869458</v>
       </c>
       <c r="J44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
@@ -1803,7 +1803,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>7951.55773844845</v>
+        <v>2552.25979981614</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>24066.5616955182</v>
+        <v>19986.6996924927</v>
       </c>
       <c r="F45" t="n">
-        <v>32514.3661272737</v>
+        <v>24502.240137925</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,10 +1824,10 @@
         <v>4198</v>
       </c>
       <c r="I45" t="n">
-        <v>3753.55773844845</v>
+        <v>-1645.74020018386</v>
       </c>
       <c r="J45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
@@ -1835,7 +1835,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>7099.01892352359</v>
+        <v>6795.05099045559</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1844,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>23213.9053794913</v>
+        <v>20274.7156531118</v>
       </c>
       <c r="F46" t="n">
-        <v>31063.9819013666</v>
+        <v>25422.2260549125</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>6494</v>
       </c>
       <c r="I46" t="n">
-        <v>605.018923523586</v>
+        <v>301.050990455587</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1867,7 +1867,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>2349.55455588255</v>
+        <v>7211.38755737181</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>22251.581699133</v>
+        <v>20136.314392578</v>
       </c>
       <c r="F47" t="n">
         <v>25002.0193669514</v>
@@ -1888,10 +1888,10 @@
         <v>5388</v>
       </c>
       <c r="I47" t="n">
-        <v>-3038.44544411745</v>
+        <v>1823.38755737181</v>
       </c>
       <c r="J47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -1899,7 +1899,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>727.914449456575</v>
+        <v>1323.35124765621</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1908,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>21961.4131075759</v>
+        <v>20121.4154831465</v>
       </c>
       <c r="F48" t="n">
-        <v>26478.5338429366</v>
+        <v>25247.9717972243</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>1685</v>
       </c>
       <c r="I48" t="n">
-        <v>-957.085550543425</v>
+        <v>-361.648752343786</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,7 +1931,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>1407.25413300554</v>
+        <v>348.86641114095</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>22881.6280922816</v>
+        <v>20790.002707571</v>
       </c>
       <c r="F49" t="n">
-        <v>31609.7497138015</v>
+        <v>25491.4071777661</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>154</v>
       </c>
       <c r="I49" t="n">
-        <v>1253.25413300554</v>
+        <v>194.86641114095</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Dengue fever.xlsx
+++ b/outcome/appendix/forecast/Dengue fever.xlsx
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>1191.38504439461</v>
+        <v>937.972529636102</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5064.49731771624</v>
+        <v>4937.6134577711</v>
       </c>
       <c r="F2" t="n">
-        <v>6972.85178226809</v>
+        <v>6340.71186678026</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>1120.38504439461</v>
+        <v>866.972529636102</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,7 +459,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>3358.8611058431</v>
+        <v>1628.89727930361</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -468,10 +468,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>13467.4398630015</v>
+        <v>5689.7968966234</v>
       </c>
       <c r="F3" t="n">
-        <v>14801.3817790976</v>
+        <v>7104.05272863969</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="n">
-        <v>3341.8611058431</v>
+        <v>1611.89727930361</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,7 +491,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>6056.3807541683</v>
+        <v>1475.59496139337</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -500,10 +500,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>21828.054427741</v>
+        <v>6810.82051329455</v>
       </c>
       <c r="F4" t="n">
-        <v>22463.0335359608</v>
+        <v>8261.98926879022</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>16</v>
       </c>
       <c r="I4" t="n">
-        <v>6040.3807541683</v>
+        <v>1459.59496139337</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>2599.94699580068</v>
+        <v>1438.74053650982</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -532,10 +532,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>22375.2671745857</v>
+        <v>7095.67796618316</v>
       </c>
       <c r="F5" t="n">
-        <v>24431.4382167319</v>
+        <v>8895.77849465701</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>2593.94699580068</v>
+        <v>1432.74053650982</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,7 +555,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>1043.56264054131</v>
+        <v>1529.66978147817</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>7195.73049020123</v>
+        <v>6543.57097594353</v>
       </c>
       <c r="F6" t="n">
-        <v>19073.2397694448</v>
+        <v>9240.8709329416</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>1039.56264054131</v>
+        <v>1525.66978147817</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>316.660633923603</v>
+        <v>1522.10078388638</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>7614.28813961975</v>
+        <v>7303.44118852402</v>
       </c>
       <c r="F7" t="n">
-        <v>16116.1767374236</v>
+        <v>9817.08285256626</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>312.660633923603</v>
+        <v>1518.10078388638</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>71.7065288930303</v>
+        <v>2124.7480532726</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -628,10 +628,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>12466.0734855993</v>
+        <v>8045.20510977185</v>
       </c>
       <c r="F8" t="n">
-        <v>26497.0195308196</v>
+        <v>11368.2476028955</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>55</v>
       </c>
       <c r="I8" t="n">
-        <v>16.7065288930303</v>
+        <v>2069.7480532726</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>2414.5924929122</v>
+        <v>1996.68021103238</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>25569.0649193261</v>
+        <v>7579.59566421262</v>
       </c>
       <c r="F9" t="n">
-        <v>29999.6239315318</v>
+        <v>11548.6642274519</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>55</v>
       </c>
       <c r="I9" t="n">
-        <v>2359.5924929122</v>
+        <v>1941.68021103238</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>6142.75450592697</v>
+        <v>4176.67644943869</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>20827.9099980546</v>
+        <v>10618.036664365</v>
       </c>
       <c r="F10" t="n">
-        <v>21931.6385339651</v>
+        <v>15540.48450074</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>247</v>
       </c>
       <c r="I10" t="n">
-        <v>5895.75450592697</v>
+        <v>3929.67644943869</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>7141.19007304129</v>
+        <v>5019.04526484432</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>19829.4510177317</v>
+        <v>12713.1723336813</v>
       </c>
       <c r="F11" t="n">
-        <v>21566.0167449097</v>
+        <v>16088.3781226824</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>287</v>
       </c>
       <c r="I11" t="n">
-        <v>6854.19007304129</v>
+        <v>4732.04526484432</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1315.53101214016</v>
+        <v>2241.5289748555</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>11281.3998187525</v>
+        <v>10086.0467391024</v>
       </c>
       <c r="F12" t="n">
-        <v>23205.6035641132</v>
+        <v>12922.8362459323</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>1252.53101214016</v>
+        <v>2178.5289748555</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>236.60539836619</v>
+        <v>1757.41809738064</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>15437.4435432971</v>
+        <v>9666.47359921723</v>
       </c>
       <c r="F13" t="n">
-        <v>21549.128096812</v>
+        <v>12230.1384994362</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>227.60539836619</v>
+        <v>1748.41809738064</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>939.77868500298</v>
+        <v>2245.58059587547</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>28429.3723497332</v>
+        <v>11004.0539392428</v>
       </c>
       <c r="F14" t="n">
-        <v>31428.978574503</v>
+        <v>14938.4847027659</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>934.77868500298</v>
+        <v>2240.58059587547</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>4568.33303113226</v>
+        <v>2261.57910150058</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -852,10 +852,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>20726.1017204175</v>
+        <v>11437.7316083661</v>
       </c>
       <c r="F15" t="n">
-        <v>22121.2776138844</v>
+        <v>15157.0885751268</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>4566.33303113226</v>
+        <v>2259.57910150058</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,7 +875,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>5977.32640290799</v>
+        <v>2490.2911494488</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -884,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>20541.8615653253</v>
+        <v>12998.9545436943</v>
       </c>
       <c r="F16" t="n">
-        <v>22191.8311042292</v>
+        <v>15628.1634856566</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>5977.32640290799</v>
+        <v>2490.2911494488</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,7 +907,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>1144.01269844316</v>
+        <v>2209.40998446905</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>17388.8135786825</v>
+        <v>12172.3071937532</v>
       </c>
       <c r="F17" t="n">
-        <v>23654.634904626</v>
+        <v>15808.0395013015</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>1140.01269844316</v>
+        <v>2205.40998446905</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,7 +939,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>210.625959618647</v>
+        <v>2275.58775466315</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -948,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>18341.9754273268</v>
+        <v>12945.3487422108</v>
       </c>
       <c r="F18" t="n">
-        <v>22722.2251596791</v>
+        <v>19771.2248823452</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>205.625959618647</v>
+        <v>2270.58775466315</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,7 +971,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>283.715929128045</v>
+        <v>2639.61036306514</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -980,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>19132.632628643</v>
+        <v>12804.9624820226</v>
       </c>
       <c r="F19" t="n">
-        <v>24666.9741024085</v>
+        <v>19602.9834045179</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>275.715929128045</v>
+        <v>2631.61036306514</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2918.42761688871</v>
+        <v>2891.15180980627</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>20804.5415133189</v>
+        <v>13142.4931943669</v>
       </c>
       <c r="F20" t="n">
-        <v>24631.9293203727</v>
+        <v>21069.2169178413</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>2915.42761688871</v>
+        <v>2888.15180980627</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>5618.59262057752</v>
+        <v>2944.38494046367</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>20557.5103500969</v>
+        <v>15699.640316111</v>
       </c>
       <c r="F21" t="n">
-        <v>22284.9183213146</v>
+        <v>21157.0461646561</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>5615.59262057752</v>
+        <v>2941.38494046367</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>3690.41876990376</v>
+        <v>4743.63690391274</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1076,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>19223.6434301487</v>
+        <v>17955.939133615</v>
       </c>
       <c r="F22" t="n">
-        <v>21529.5327571722</v>
+        <v>25274.0678086377</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>3686.41876990376</v>
+        <v>4739.63690391274</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>2273.51277382501</v>
+        <v>5661.28167527722</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>18092.1362681969</v>
+        <v>18591.4895095671</v>
       </c>
       <c r="F23" t="n">
-        <v>22185.8214354945</v>
+        <v>25211.9357900858</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>2267.51277382501</v>
+        <v>5655.28167527722</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>912.614298532019</v>
+        <v>3219.3094349273</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1140,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>19776.3023839241</v>
+        <v>16395.0505769322</v>
       </c>
       <c r="F24" t="n">
-        <v>23133.1078859582</v>
+        <v>21472.8256689099</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>907.614298532019</v>
+        <v>3214.3094349273</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,7 +1163,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>603.808620733983</v>
+        <v>2770.70393452478</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1172,10 +1172,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>20233.6966262218</v>
+        <v>16697.4864111591</v>
       </c>
       <c r="F25" t="n">
-        <v>22234.9112370522</v>
+        <v>24327.4932648129</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>600.808620733983</v>
+        <v>2767.70393452478</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,7 +1195,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>783.30272784794</v>
+        <v>2842.3074643308</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1204,10 +1204,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>21812.2720948004</v>
+        <v>16213.9288300547</v>
       </c>
       <c r="F26" t="n">
-        <v>25175.4268025922</v>
+        <v>25622.4591514391</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>783.30272784794</v>
+        <v>2842.3074643308</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2640.3839638883</v>
+        <v>2591.07580565375</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>19591.8718062622</v>
+        <v>19020.1405697328</v>
       </c>
       <c r="F27" t="n">
-        <v>22143.7983562157</v>
+        <v>26393.0704692779</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2640.3839638883</v>
+        <v>2591.07580565375</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,7 +1259,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>6351.95351353273</v>
+        <v>3081.33568087412</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>19423.7854649378</v>
+        <v>20191.3333368766</v>
       </c>
       <c r="F28" t="n">
-        <v>22936.6743322763</v>
+        <v>26676.3259498233</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>6349.95351353273</v>
+        <v>3079.33568087412</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>8468.78976193943</v>
+        <v>2444.32567178174</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>19722.5030903156</v>
+        <v>19203.681117254</v>
       </c>
       <c r="F29" t="n">
-        <v>24701.2203405497</v>
+        <v>25697.410291445</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>8468.78976193943</v>
+        <v>2444.32567178174</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>1837.92369231742</v>
+        <v>2376.74290624196</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>20638.4468676229</v>
+        <v>17267.2589067569</v>
       </c>
       <c r="F30" t="n">
-        <v>25239.8265707765</v>
+        <v>29083.4712986769</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>1835.92369231742</v>
+        <v>2374.74290624196</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,7 +1355,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>949.302270295295</v>
+        <v>2434.30422494523</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1364,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>20582.4002978606</v>
+        <v>19181.3447174929</v>
       </c>
       <c r="F31" t="n">
-        <v>24396.2321858933</v>
+        <v>26796.1342612495</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>948.302270295295</v>
+        <v>2433.30422494523</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2336.79941515417</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1396,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>20218.2952239959</v>
+        <v>18946.6590427049</v>
       </c>
       <c r="F32" t="n">
-        <v>22595.7530937135</v>
+        <v>30499.705567054</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,10 +1408,10 @@
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>-3</v>
+        <v>2333.79941515417</v>
       </c>
       <c r="J32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>3044.51498847942</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1428,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>20088.0712133623</v>
+        <v>20103.7478412868</v>
       </c>
       <c r="F33" t="n">
-        <v>23876.6041293377</v>
+        <v>28788.942364607</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,10 +1440,10 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>-1</v>
+        <v>3043.51498847942</v>
       </c>
       <c r="J33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4350.16702222249</v>
+        <v>4924.93307455756</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>20526.4728658412</v>
+        <v>20855.5682702241</v>
       </c>
       <c r="F34" t="n">
-        <v>24644.3886827271</v>
+        <v>31958.323861372</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>28</v>
       </c>
       <c r="I34" t="n">
-        <v>4322.16702222249</v>
+        <v>4896.93307455756</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>7586.30929077945</v>
+        <v>5946.2134982666</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1492,10 +1492,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>20322.2795027108</v>
+        <v>21794.5309751569</v>
       </c>
       <c r="F35" t="n">
-        <v>24660.0575186322</v>
+        <v>34285.529546567</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>326</v>
       </c>
       <c r="I35" t="n">
-        <v>7260.30929077945</v>
+        <v>5620.2134982666</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>4920.46337121135</v>
+        <v>3356.26897064322</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>20615.0821501577</v>
+        <v>21192.4429909411</v>
       </c>
       <c r="F36" t="n">
-        <v>23789.383790068</v>
+        <v>32811.0738774005</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>174</v>
       </c>
       <c r="I36" t="n">
-        <v>4746.46337121135</v>
+        <v>3182.26897064322</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,7 +1547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>1003.59274785338</v>
+        <v>2533.29746347538</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1556,10 +1556,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>19726.707902785</v>
+        <v>21398.5687357896</v>
       </c>
       <c r="F37" t="n">
-        <v>22762.4587391996</v>
+        <v>34005.7747659424</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>11</v>
       </c>
       <c r="I37" t="n">
-        <v>992.592747853376</v>
+        <v>2522.29746347538</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,7 +1579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>866.081215502176</v>
+        <v>2335.33206389614</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>20423.9252073437</v>
+        <v>22000.539620834</v>
       </c>
       <c r="F38" t="n">
-        <v>24013.6622351163</v>
+        <v>32345.750554735</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>865.081215502176</v>
+        <v>2334.33206389614</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,7 +1611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>1551.5536415866</v>
+        <v>2674.97859172502</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1620,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>20259.0092371542</v>
+        <v>21582.8268416687</v>
       </c>
       <c r="F39" t="n">
-        <v>24164.4880503427</v>
+        <v>33173.6814636325</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>11</v>
       </c>
       <c r="I39" t="n">
-        <v>1540.5536415866</v>
+        <v>2663.97859172502</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,7 +1643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3780.03445696508</v>
+        <v>2552.75179328143</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>20649.4130117327</v>
+        <v>23657.1784961903</v>
       </c>
       <c r="F40" t="n">
-        <v>25323.5544298541</v>
+        <v>32271.9918217009</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>7</v>
       </c>
       <c r="I40" t="n">
-        <v>3773.03445696508</v>
+        <v>2545.75179328143</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,7 +1675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>6138.04030827555</v>
+        <v>2613.28066486896</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1684,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>19898.6097169904</v>
+        <v>23016.5818099068</v>
       </c>
       <c r="F41" t="n">
-        <v>24062.7720078932</v>
+        <v>35830.355743897</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>9</v>
       </c>
       <c r="I41" t="n">
-        <v>6129.04030827555</v>
+        <v>2604.28066486896</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,7 +1707,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>1742.48126081694</v>
+        <v>2650.4338723423</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1716,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>20527.045795781</v>
+        <v>23259.8135454304</v>
       </c>
       <c r="F42" t="n">
-        <v>24246.9898388947</v>
+        <v>33397.9897603477</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>21</v>
       </c>
       <c r="I42" t="n">
-        <v>1721.48126081694</v>
+        <v>2629.4338723423</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>573.16653496096</v>
+        <v>3027.15291901719</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1748,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>20651.5724305013</v>
+        <v>23821.7747652296</v>
       </c>
       <c r="F43" t="n">
-        <v>24746.6904707391</v>
+        <v>37048.2291182356</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>55</v>
       </c>
       <c r="I43" t="n">
-        <v>518.16653496096</v>
+        <v>2972.15291901719</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,7 +1771,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>523.827021305418</v>
+        <v>3528.35773367093</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>20535.9570384218</v>
+        <v>25583.2652265835</v>
       </c>
       <c r="F44" t="n">
-        <v>24248.240647046</v>
+        <v>36484.695226628</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,10 +1792,10 @@
         <v>1604</v>
       </c>
       <c r="I44" t="n">
-        <v>-1080.17297869458</v>
+        <v>1924.35773367093</v>
       </c>
       <c r="J44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -1803,7 +1803,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>2552.25979981614</v>
+        <v>3586.28984447686</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>19986.6996924927</v>
+        <v>25430.1294705772</v>
       </c>
       <c r="F45" t="n">
-        <v>24502.240137925</v>
+        <v>40191.583890145</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>4198</v>
       </c>
       <c r="I45" t="n">
-        <v>-1645.74020018386</v>
+        <v>-611.710155523142</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,7 +1835,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>6795.05099045559</v>
+        <v>5626.6316997415</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1844,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>20274.7156531118</v>
+        <v>29822.0211178474</v>
       </c>
       <c r="F46" t="n">
-        <v>25422.2260549125</v>
+        <v>39550.4563758973</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,10 +1856,10 @@
         <v>6494</v>
       </c>
       <c r="I46" t="n">
-        <v>301.050990455587</v>
+        <v>-867.368300258501</v>
       </c>
       <c r="J46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -1867,7 +1867,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>7211.38755737181</v>
+        <v>6185.19676942362</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1876,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>20136.314392578</v>
+        <v>30175.2296835261</v>
       </c>
       <c r="F47" t="n">
-        <v>25002.0193669514</v>
+        <v>41806.1312522061</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>5388</v>
       </c>
       <c r="I47" t="n">
-        <v>1823.38755737181</v>
+        <v>797.196769423624</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1899,7 +1899,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>1323.35124765621</v>
+        <v>3820.07034643616</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1908,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>20121.4154831465</v>
+        <v>29438.0718040712</v>
       </c>
       <c r="F48" t="n">
-        <v>25247.9717972243</v>
+        <v>39805.2523033021</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,10 +1920,10 @@
         <v>1685</v>
       </c>
       <c r="I48" t="n">
-        <v>-361.648752343786</v>
+        <v>2135.07034643616</v>
       </c>
       <c r="J48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
@@ -1931,7 +1931,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>348.86641114095</v>
+        <v>2902.64773371464</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>20790.002707571</v>
+        <v>31265.1063889121</v>
       </c>
       <c r="F49" t="n">
-        <v>25491.4071777661</v>
+        <v>40981.6371366662</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>154</v>
       </c>
       <c r="I49" t="n">
-        <v>194.86641114095</v>
+        <v>2748.64773371464</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Dengue fever.xlsx
+++ b/outcome/appendix/forecast/Dengue fever.xlsx
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>937.972529636102</v>
+        <v>652.502413798</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4937.6134577711</v>
+        <v>6014.1462061971</v>
       </c>
       <c r="F2" t="n">
-        <v>6340.71186678026</v>
+        <v>6014.1462061971</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>866.972529636102</v>
+        <v>581.502413798</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,7 +459,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>1628.89727930361</v>
+        <v>670.172344625705</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -468,10 +468,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>5689.7968966234</v>
+        <v>5530.74120117753</v>
       </c>
       <c r="F3" t="n">
-        <v>7104.05272863969</v>
+        <v>5530.74120117753</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="n">
-        <v>1611.89727930361</v>
+        <v>653.172344625705</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,7 +491,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>1475.59496139337</v>
+        <v>643.819246115693</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -500,10 +500,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>6810.82051329455</v>
+        <v>5744.93490681107</v>
       </c>
       <c r="F4" t="n">
-        <v>8261.98926879022</v>
+        <v>5744.93490681107</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>16</v>
       </c>
       <c r="I4" t="n">
-        <v>1459.59496139337</v>
+        <v>627.819246115693</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>1438.74053650982</v>
+        <v>664.237233353341</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -532,10 +532,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>7095.67796618316</v>
+        <v>5740.26932904016</v>
       </c>
       <c r="F5" t="n">
-        <v>8895.77849465701</v>
+        <v>5740.26932904016</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>1432.74053650982</v>
+        <v>658.237233353341</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,7 +555,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>1529.66978147817</v>
+        <v>703.090146741444</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>6543.57097594353</v>
+        <v>6149.33156893799</v>
       </c>
       <c r="F6" t="n">
-        <v>9240.8709329416</v>
+        <v>6149.33156893799</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>1525.66978147817</v>
+        <v>699.090146741444</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>1522.10078388638</v>
+        <v>745.179672644514</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>7303.44118852402</v>
+        <v>5778.38803245514</v>
       </c>
       <c r="F7" t="n">
-        <v>9817.08285256626</v>
+        <v>5778.38803245514</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>1518.10078388638</v>
+        <v>741.179672644514</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,7 +619,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>2124.7480532726</v>
+        <v>818.452885914026</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -628,10 +628,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>8045.20510977185</v>
+        <v>5959.5081062502</v>
       </c>
       <c r="F8" t="n">
-        <v>11368.2476028955</v>
+        <v>5959.5081062502</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>55</v>
       </c>
       <c r="I8" t="n">
-        <v>2069.7480532726</v>
+        <v>763.452885914026</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>1996.68021103238</v>
+        <v>1181.15240166213</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>7579.59566421262</v>
+        <v>5929.39216362042</v>
       </c>
       <c r="F9" t="n">
-        <v>11548.6642274519</v>
+        <v>5929.39216362042</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>55</v>
       </c>
       <c r="I9" t="n">
-        <v>1941.68021103238</v>
+        <v>1126.15240166213</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,7 +683,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>4176.67644943869</v>
+        <v>3056.88813608753</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>10618.036664365</v>
+        <v>7964.56074495058</v>
       </c>
       <c r="F10" t="n">
-        <v>15540.48450074</v>
+        <v>7964.56074495058</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>247</v>
       </c>
       <c r="I10" t="n">
-        <v>3929.67644943869</v>
+        <v>2809.88813608753</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,7 +715,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>5019.04526484432</v>
+        <v>4098.98928813468</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>12713.1723336813</v>
+        <v>9217.47708041541</v>
       </c>
       <c r="F11" t="n">
-        <v>16088.3781226824</v>
+        <v>9217.47708041541</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>287</v>
       </c>
       <c r="I11" t="n">
-        <v>4732.04526484432</v>
+        <v>3811.98928813468</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,7 +747,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2241.5289748555</v>
+        <v>1300.01647002906</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>10086.0467391024</v>
+        <v>6399.79943174697</v>
       </c>
       <c r="F12" t="n">
-        <v>12922.8362459323</v>
+        <v>6399.79943174697</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>2178.5289748555</v>
+        <v>1237.01647002906</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,7 +779,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>1757.41809738064</v>
+        <v>703.533118799337</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>9666.47359921723</v>
+        <v>5681.17770806095</v>
       </c>
       <c r="F13" t="n">
-        <v>12230.1384994362</v>
+        <v>5681.17770806095</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>1748.41809738064</v>
+        <v>694.533118799337</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,7 +811,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2245.58059587547</v>
+        <v>711.887396853943</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>11004.0539392428</v>
+        <v>5856.49520884625</v>
       </c>
       <c r="F14" t="n">
-        <v>14938.4847027659</v>
+        <v>5856.49520884625</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>2240.58059587547</v>
+        <v>706.887396853943</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,7 +843,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2261.57910150058</v>
+        <v>706.64409486589</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -852,10 +852,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>11437.7316083661</v>
+        <v>5717.52494827063</v>
       </c>
       <c r="F15" t="n">
-        <v>15157.0885751268</v>
+        <v>5717.52494827063</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>2259.57910150058</v>
+        <v>704.64409486589</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,7 +875,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>2490.2911494488</v>
+        <v>741.321444620683</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -884,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>12998.9545436943</v>
+        <v>5620.23726691852</v>
       </c>
       <c r="F16" t="n">
-        <v>15628.1634856566</v>
+        <v>5620.23726691852</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2490.2911494488</v>
+        <v>741.321444620683</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,7 +907,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>2209.40998446905</v>
+        <v>756.476000638668</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>12172.3071937532</v>
+        <v>5531.97448318048</v>
       </c>
       <c r="F17" t="n">
-        <v>15808.0395013015</v>
+        <v>5531.97448318048</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>2205.40998446905</v>
+        <v>752.476000638668</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,7 +939,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>2275.58775466315</v>
+        <v>783.802782956031</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -948,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>12945.3487422108</v>
+        <v>5840.34688880621</v>
       </c>
       <c r="F18" t="n">
-        <v>19771.2248823452</v>
+        <v>5840.34688880621</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>2270.58775466315</v>
+        <v>778.802782956031</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,7 +971,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>2639.61036306514</v>
+        <v>823.044014438984</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -980,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>12804.9624820226</v>
+        <v>5644.82324343946</v>
       </c>
       <c r="F19" t="n">
-        <v>19602.9834045179</v>
+        <v>5644.82324343946</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>2631.61036306514</v>
+        <v>815.044014438984</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,7 +1003,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>2891.15180980627</v>
+        <v>900.778166016967</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>13142.4931943669</v>
+        <v>5945.69940097039</v>
       </c>
       <c r="F20" t="n">
-        <v>21069.2169178413</v>
+        <v>5945.69940097039</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>2888.15180980627</v>
+        <v>897.778166016967</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,7 +1035,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>2944.38494046367</v>
+        <v>1278.72048017459</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>15699.640316111</v>
+        <v>6373.25305481398</v>
       </c>
       <c r="F21" t="n">
-        <v>21157.0461646561</v>
+        <v>6373.25305481398</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>2941.38494046367</v>
+        <v>1275.72048017459</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,7 +1067,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>4743.63690391274</v>
+        <v>3176.61993148011</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1076,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>17955.939133615</v>
+        <v>8150.44062509044</v>
       </c>
       <c r="F22" t="n">
-        <v>25274.0678086377</v>
+        <v>8150.44062509044</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>4739.63690391274</v>
+        <v>3172.61993148011</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,7 +1099,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>5661.28167527722</v>
+        <v>4201.00833545658</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>18591.4895095671</v>
+        <v>9693.09823504249</v>
       </c>
       <c r="F23" t="n">
-        <v>25211.9357900858</v>
+        <v>9693.09823504249</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>5655.28167527722</v>
+        <v>4195.00833545658</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,7 +1131,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3219.3094349273</v>
+        <v>1362.98426296912</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1140,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>16395.0505769322</v>
+        <v>6153.51943553779</v>
       </c>
       <c r="F24" t="n">
-        <v>21472.8256689099</v>
+        <v>6153.51943553779</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>3214.3094349273</v>
+        <v>1357.98426296912</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,7 +1163,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2770.70393452478</v>
+        <v>789.017112668154</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1172,10 +1172,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>16697.4864111591</v>
+        <v>5696.39689616354</v>
       </c>
       <c r="F25" t="n">
-        <v>24327.4932648129</v>
+        <v>5696.39689616354</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>2767.70393452478</v>
+        <v>786.017112668154</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,7 +1195,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2842.3074643308</v>
+        <v>815.567189791559</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1204,10 +1204,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>16213.9288300547</v>
+        <v>5803.81988523893</v>
       </c>
       <c r="F26" t="n">
-        <v>25622.4591514391</v>
+        <v>5803.81988523893</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2842.3074643308</v>
+        <v>815.567189791559</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,7 +1227,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2591.07580565375</v>
+        <v>818.550111965376</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>19020.1405697328</v>
+        <v>6206.18926179525</v>
       </c>
       <c r="F27" t="n">
-        <v>26393.0704692779</v>
+        <v>6206.18926179525</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2591.07580565375</v>
+        <v>818.550111965376</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,7 +1259,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3081.33568087412</v>
+        <v>838.384142722783</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>20191.3333368766</v>
+        <v>5506.02517411165</v>
       </c>
       <c r="F28" t="n">
-        <v>26676.3259498233</v>
+        <v>5506.02517411165</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>3079.33568087412</v>
+        <v>836.384142722783</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,7 +1291,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>2444.32567178174</v>
+        <v>848.246943912123</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>19203.681117254</v>
+        <v>6056.59260120776</v>
       </c>
       <c r="F29" t="n">
-        <v>25697.410291445</v>
+        <v>6056.59260120776</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2444.32567178174</v>
+        <v>848.246943912123</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,7 +1323,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>2376.74290624196</v>
+        <v>864.261323039729</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>17267.2589067569</v>
+        <v>6276.36919926261</v>
       </c>
       <c r="F30" t="n">
-        <v>29083.4712986769</v>
+        <v>6276.36919926261</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>2374.74290624196</v>
+        <v>862.261323039729</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,7 +1355,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>2434.30422494523</v>
+        <v>901.077375946086</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1364,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>19181.3447174929</v>
+        <v>5881.59347428</v>
       </c>
       <c r="F31" t="n">
-        <v>26796.1342612495</v>
+        <v>5881.59347428</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>2433.30422494523</v>
+        <v>900.077375946086</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,7 +1387,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2336.79941515417</v>
+        <v>983.819033383018</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1396,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>18946.6590427049</v>
+        <v>6425.51662824419</v>
       </c>
       <c r="F32" t="n">
-        <v>30499.705567054</v>
+        <v>6425.51662824419</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>2333.79941515417</v>
+        <v>980.819033383018</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,7 +1419,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>3044.51498847942</v>
+        <v>1377.25189175513</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1428,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>20103.7478412868</v>
+        <v>6386.97289086424</v>
       </c>
       <c r="F33" t="n">
-        <v>28788.942364607</v>
+        <v>6386.97289086424</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>3043.51498847942</v>
+        <v>1376.25189175513</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,7 +1451,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4924.93307455756</v>
+        <v>3295.98569311376</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>20855.5682702241</v>
+        <v>8201.09909914006</v>
       </c>
       <c r="F34" t="n">
-        <v>31958.323861372</v>
+        <v>8201.09909914006</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>28</v>
       </c>
       <c r="I34" t="n">
-        <v>4896.93307455756</v>
+        <v>3267.98569311376</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,7 +1483,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>5946.2134982666</v>
+        <v>4301.19018217975</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1492,10 +1492,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>21794.5309751569</v>
+        <v>9451.8069153131</v>
       </c>
       <c r="F35" t="n">
-        <v>34285.529546567</v>
+        <v>9451.8069153131</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>326</v>
       </c>
       <c r="I35" t="n">
-        <v>5620.2134982666</v>
+        <v>3975.19018217975</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,7 +1515,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3356.26897064322</v>
+        <v>1425.96524763453</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>21192.4429909411</v>
+        <v>6730.25935959166</v>
       </c>
       <c r="F36" t="n">
-        <v>32811.0738774005</v>
+        <v>6730.25935959166</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>174</v>
       </c>
       <c r="I36" t="n">
-        <v>3182.26897064322</v>
+        <v>1251.96524763453</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,7 +1547,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>2533.29746347538</v>
+        <v>875.428214632149</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1556,10 +1556,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>21398.5687357896</v>
+        <v>5722.7973632889</v>
       </c>
       <c r="F37" t="n">
-        <v>34005.7747659424</v>
+        <v>5722.7973632889</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>11</v>
       </c>
       <c r="I37" t="n">
-        <v>2522.29746347538</v>
+        <v>864.428214632149</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,7 +1579,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2335.33206389614</v>
+        <v>919.936023422893</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>22000.539620834</v>
+        <v>6181.51714252903</v>
       </c>
       <c r="F38" t="n">
-        <v>32345.750554735</v>
+        <v>6181.51714252903</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>2334.33206389614</v>
+        <v>918.936023422893</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,7 +1611,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2674.97859172502</v>
+        <v>930.560960134567</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1620,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>21582.8268416687</v>
+        <v>5961.64854150538</v>
       </c>
       <c r="F39" t="n">
-        <v>33173.6814636325</v>
+        <v>5961.64854150538</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>11</v>
       </c>
       <c r="I39" t="n">
-        <v>2663.97859172502</v>
+        <v>919.560960134567</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,7 +1643,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>2552.75179328143</v>
+        <v>934.997631344154</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>23657.1784961903</v>
+        <v>5864.55326469771</v>
       </c>
       <c r="F40" t="n">
-        <v>32271.9918217009</v>
+        <v>5864.55326469771</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>7</v>
       </c>
       <c r="I40" t="n">
-        <v>2545.75179328143</v>
+        <v>927.997631344154</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,7 +1675,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>2613.28066486896</v>
+        <v>939.553681299157</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -1684,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>23016.5818099068</v>
+        <v>6080.29000654087</v>
       </c>
       <c r="F41" t="n">
-        <v>35830.355743897</v>
+        <v>6080.29000654087</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>9</v>
       </c>
       <c r="I41" t="n">
-        <v>2604.28066486896</v>
+        <v>930.553681299157</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,7 +1707,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>2650.4338723423</v>
+        <v>944.487473468207</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -1716,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>23259.8135454304</v>
+        <v>6242.66290056234</v>
       </c>
       <c r="F42" t="n">
-        <v>33397.9897603477</v>
+        <v>6242.66290056234</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>21</v>
       </c>
       <c r="I42" t="n">
-        <v>2629.4338723423</v>
+        <v>923.487473468207</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,7 +1739,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>3027.15291901719</v>
+        <v>979.305084635551</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -1748,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>23821.7747652296</v>
+        <v>5938.29432913308</v>
       </c>
       <c r="F43" t="n">
-        <v>37048.2291182356</v>
+        <v>5938.29432913308</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>55</v>
       </c>
       <c r="I43" t="n">
-        <v>2972.15291901719</v>
+        <v>924.305084635551</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,7 +1771,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>3528.35773367093</v>
+        <v>1067.58445826029</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>25583.2652265835</v>
+        <v>6063.071839342</v>
       </c>
       <c r="F44" t="n">
-        <v>36484.695226628</v>
+        <v>6063.071839342</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,10 +1792,10 @@
         <v>1604</v>
       </c>
       <c r="I44" t="n">
-        <v>1924.35773367093</v>
+        <v>-536.415541739713</v>
       </c>
       <c r="J44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
@@ -1803,7 +1803,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>3586.28984447686</v>
+        <v>1476.71784550285</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>25430.1294705772</v>
+        <v>6398.54056984341</v>
       </c>
       <c r="F45" t="n">
-        <v>40191.583890145</v>
+        <v>6398.54056984341</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>4198</v>
       </c>
       <c r="I45" t="n">
-        <v>-611.710155523142</v>
+        <v>-2721.28215449715</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,7 +1835,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>5626.6316997415</v>
+        <v>3414.93025566013</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1844,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>29822.0211178474</v>
+        <v>8675.89375120655</v>
       </c>
       <c r="F46" t="n">
-        <v>39550.4563758973</v>
+        <v>8675.89375120655</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>6494</v>
       </c>
       <c r="I46" t="n">
-        <v>-867.368300258501</v>
+        <v>-3079.06974433987</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,7 +1867,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>6185.19676942362</v>
+        <v>4399.54072855097</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1876,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>30175.2296835261</v>
+        <v>9282.07656636155</v>
       </c>
       <c r="F47" t="n">
-        <v>41806.1312522061</v>
+        <v>9282.07656636155</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,10 +1888,10 @@
         <v>5388</v>
       </c>
       <c r="I47" t="n">
-        <v>797.196769423624</v>
+        <v>-988.459271449033</v>
       </c>
       <c r="J47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -1899,7 +1899,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>3820.07034643616</v>
+        <v>1489.01875849733</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1908,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>29438.0718040712</v>
+        <v>6744.77066944248</v>
       </c>
       <c r="F48" t="n">
-        <v>39805.2523033021</v>
+        <v>6744.77066944248</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,10 +1920,10 @@
         <v>1685</v>
       </c>
       <c r="I48" t="n">
-        <v>2135.07034643616</v>
+        <v>-195.981241502666</v>
       </c>
       <c r="J48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -1931,7 +1931,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>2902.64773371464</v>
+        <v>962.785084083023</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>31265.1063889121</v>
+        <v>6165.65147036005</v>
       </c>
       <c r="F49" t="n">
-        <v>40981.6371366662</v>
+        <v>6165.65147036005</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>154</v>
       </c>
       <c r="I49" t="n">
-        <v>2748.64773371464</v>
+        <v>808.785084083023</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/Dengue fever.xlsx
+++ b/outcome/appendix/forecast/Dengue fever.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t xml:space="preserve">Decrease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase</t>
   </si>
 </sst>
 </file>
@@ -427,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>652.502413798</v>
+        <v>197.644136630829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>47.9245785499495</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>23.3851282598989</v>
       </c>
       <c r="E2" t="n">
-        <v>6014.1462061971</v>
+        <v>893.387629967982</v>
       </c>
       <c r="F2" t="n">
-        <v>6014.1462061971</v>
+        <v>2070.21405034149</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +445,7 @@
         <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>581.502413798</v>
+        <v>126.644136630829</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>670.172344625705</v>
+        <v>93.2109188034875</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>22.9092060286923</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11.2350002012195</v>
       </c>
       <c r="E3" t="n">
-        <v>5530.74120117753</v>
+        <v>414.297402024326</v>
       </c>
       <c r="F3" t="n">
-        <v>5530.74120117753</v>
+        <v>950.438526060741</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +477,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="n">
-        <v>653.172344625705</v>
+        <v>76.2109188034875</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>643.819246115693</v>
+        <v>58.0690043970775</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>13.9950837267658</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6.78529142272147</v>
       </c>
       <c r="E4" t="n">
-        <v>5744.93490681107</v>
+        <v>263.408149440481</v>
       </c>
       <c r="F4" t="n">
-        <v>5744.93490681107</v>
+        <v>611.400758516912</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +509,7 @@
         <v>16</v>
       </c>
       <c r="I4" t="n">
-        <v>627.819246115693</v>
+        <v>42.0690043970775</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>664.237233353341</v>
+        <v>130.169024156956</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>28.3775137185572</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>13.139030651241</v>
       </c>
       <c r="E5" t="n">
-        <v>5740.26932904016</v>
+        <v>663.610348138865</v>
       </c>
       <c r="F5" t="n">
-        <v>5740.26932904016</v>
+        <v>1650.46046445489</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +541,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>658.237233353341</v>
+        <v>124.169024156956</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>703.090146741444</v>
+        <v>287.663869960068</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>53.6937969643064</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>23.1101520980163</v>
       </c>
       <c r="E6" t="n">
-        <v>6149.33156893799</v>
+        <v>1756.57549496626</v>
       </c>
       <c r="F6" t="n">
-        <v>6149.33156893799</v>
+        <v>4864.60781119305</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>699.090146741444</v>
+        <v>283.663869960068</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>745.179672644514</v>
+        <v>570.52372847669</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>101.477192474121</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>42.7228939994242</v>
       </c>
       <c r="E7" t="n">
-        <v>5778.38803245514</v>
+        <v>3687.90890739169</v>
       </c>
       <c r="F7" t="n">
-        <v>5778.38803245514</v>
+        <v>10568.7033938198</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +605,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>741.179672644514</v>
+        <v>566.52372847669</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>818.452885914026</v>
+        <v>1226.02072772084</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>203.057771170201</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>82.6972904645572</v>
       </c>
       <c r="E8" t="n">
-        <v>5959.5081062502</v>
+        <v>8620.03011961865</v>
       </c>
       <c r="F8" t="n">
-        <v>5959.5081062502</v>
+        <v>25987.9525147333</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +637,7 @@
         <v>55</v>
       </c>
       <c r="I8" t="n">
-        <v>763.452885914026</v>
+        <v>1171.02072772084</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +648,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>1181.15240166213</v>
+        <v>3806.59903401033</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>573.325201957286</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>223.381216003569</v>
       </c>
       <c r="E9" t="n">
-        <v>5929.39216362042</v>
+        <v>29953.5214369112</v>
       </c>
       <c r="F9" t="n">
-        <v>5929.39216362042</v>
+        <v>96694.5847735286</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +669,7 @@
         <v>55</v>
       </c>
       <c r="I9" t="n">
-        <v>1126.15240166213</v>
+        <v>3751.59903401033</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>3056.88813608753</v>
+        <v>9095.72237367013</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1271.54484347734</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>478.533404693317</v>
       </c>
       <c r="E10" t="n">
-        <v>7964.56074495058</v>
+        <v>78229.3254384967</v>
       </c>
       <c r="F10" t="n">
-        <v>7964.56074495058</v>
+        <v>266646.016907275</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +701,7 @@
         <v>247</v>
       </c>
       <c r="I10" t="n">
-        <v>2809.88813608753</v>
+        <v>8848.72237367013</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>4098.98928813468</v>
+        <v>7421.33910974204</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1053.61507729141</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>399.372964399931</v>
       </c>
       <c r="E11" t="n">
-        <v>9217.47708041541</v>
+        <v>62660.3730831069</v>
       </c>
       <c r="F11" t="n">
-        <v>9217.47708041541</v>
+        <v>211174.974063123</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +733,7 @@
         <v>287</v>
       </c>
       <c r="I11" t="n">
-        <v>3811.98928813468</v>
+        <v>7134.33910974204</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1300.01647002906</v>
+        <v>2670.81203271099</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>409.908547498998</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>161.112579001635</v>
       </c>
       <c r="E12" t="n">
-        <v>6399.79943174697</v>
+        <v>20550.4314285565</v>
       </c>
       <c r="F12" t="n">
-        <v>6399.79943174697</v>
+        <v>65440.5113334002</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +765,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>1237.01647002906</v>
+        <v>2607.81203271099</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>703.533118799337</v>
+        <v>438.447214222509</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>77.0604925564569</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>32.2503403409368</v>
       </c>
       <c r="E13" t="n">
-        <v>5681.17770806095</v>
+        <v>2873.23819721657</v>
       </c>
       <c r="F13" t="n">
-        <v>5681.17770806095</v>
+        <v>8301.95280936916</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +797,7 @@
         <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>694.533118799337</v>
+        <v>429.447214222509</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>711.887396853943</v>
+        <v>153.06521034321</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>25.496913167956</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>10.3743125854118</v>
       </c>
       <c r="E14" t="n">
-        <v>5856.49520884625</v>
+        <v>1065.89483210981</v>
       </c>
       <c r="F14" t="n">
-        <v>5856.49520884625</v>
+        <v>3194.11723784217</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +829,7 @@
         <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>706.887396853943</v>
+        <v>148.06521034321</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>706.64409486589</v>
+        <v>95.8212607135909</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>16.4365089325527</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>6.76669882761022</v>
       </c>
       <c r="E15" t="n">
-        <v>5717.52494827063</v>
+        <v>643.55526072058</v>
       </c>
       <c r="F15" t="n">
-        <v>5717.52494827063</v>
+        <v>1886.56562229654</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +861,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>704.64409486589</v>
+        <v>93.8212607135909</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>741.321444620683</v>
+        <v>78.1316211712886</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>13.4198918109975</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>5.52054783606574</v>
       </c>
       <c r="E16" t="n">
-        <v>5620.23726691852</v>
+        <v>523.350460568924</v>
       </c>
       <c r="F16" t="n">
-        <v>5620.23726691852</v>
+        <v>1531.57594025535</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>741.321444620683</v>
+        <v>78.1316211712886</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>756.476000638668</v>
+        <v>147.955600566944</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>24.101186269192</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>9.70050211577409</v>
       </c>
       <c r="E17" t="n">
-        <v>5531.97448318048</v>
+        <v>1057.54806752157</v>
       </c>
       <c r="F17" t="n">
-        <v>5531.97448318048</v>
+        <v>3219.46142436965</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +925,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>752.476000638668</v>
+        <v>143.955600566944</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>783.802782956031</v>
+        <v>346.862268776708</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>51.924404784985</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>20.1317786288795</v>
       </c>
       <c r="E18" t="n">
-        <v>5840.34688880621</v>
+        <v>2745.03165809602</v>
       </c>
       <c r="F18" t="n">
-        <v>5840.34688880621</v>
+        <v>8891.23766208381</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +957,7 @@
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>778.802782956031</v>
+        <v>341.862268776708</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>823.044014438984</v>
+        <v>728.700210013448</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>102.84149608174</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>38.8318039006331</v>
       </c>
       <c r="E19" t="n">
-        <v>5644.82324343946</v>
+        <v>6191.54517223206</v>
       </c>
       <c r="F19" t="n">
-        <v>5644.82324343946</v>
+        <v>20946.0383590326</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +989,7 @@
         <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>815.044014438984</v>
+        <v>720.700210013448</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>900.778166016967</v>
+        <v>1393.87019937058</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>185.790676355385</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>68.3467555977662</v>
       </c>
       <c r="E20" t="n">
-        <v>5945.69940097039</v>
+        <v>12687.6553623586</v>
       </c>
       <c r="F20" t="n">
-        <v>5945.69940097039</v>
+        <v>44778.049854789</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1021,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>897.778166016967</v>
+        <v>1390.87019937058</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>1278.72048017459</v>
+        <v>3981.48320592334</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>484.670533508164</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>171.032790926347</v>
       </c>
       <c r="E21" t="n">
-        <v>6373.25305481398</v>
+        <v>40447.3500736906</v>
       </c>
       <c r="F21" t="n">
-        <v>6373.25305481398</v>
+        <v>152775.544794964</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1053,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>1275.72048017459</v>
+        <v>3978.48320592334</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>3176.61993148011</v>
+        <v>11022.2695066145</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1223.90226712667</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>414.071598378986</v>
       </c>
       <c r="E22" t="n">
-        <v>8150.44062509044</v>
+        <v>125251.639254148</v>
       </c>
       <c r="F22" t="n">
-        <v>8150.44062509044</v>
+        <v>507298.564285656</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1085,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>3172.61993148011</v>
+        <v>11018.2695066145</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>4201.00833545658</v>
+        <v>10374.6207680337</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1158.04785964373</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>392.733763569557</v>
       </c>
       <c r="E23" t="n">
-        <v>9693.09823504249</v>
+        <v>117137.658107254</v>
       </c>
       <c r="F23" t="n">
-        <v>9693.09823504249</v>
+        <v>472534.521712067</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1117,7 @@
         <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>4195.00833545658</v>
+        <v>10368.6207680337</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1362.98426296912</v>
+        <v>3649.08337546826</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>446.676918412209</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>158.025752851236</v>
       </c>
       <c r="E24" t="n">
-        <v>6153.51943553779</v>
+        <v>36821.671172397</v>
       </c>
       <c r="F24" t="n">
-        <v>6153.51943553779</v>
+        <v>138500.786467873</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1149,7 @@
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>1357.98426296912</v>
+        <v>3644.08337546826</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>789.017112668154</v>
+        <v>658.751402789524</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>93.1050919394072</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>35.1749185888615</v>
       </c>
       <c r="E25" t="n">
-        <v>5696.39689616354</v>
+        <v>5586.97064884398</v>
       </c>
       <c r="F25" t="n">
-        <v>5696.39689616354</v>
+        <v>18879.4413384446</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1181,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>786.017112668154</v>
+        <v>655.751402789524</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>815.567189791559</v>
+        <v>358.838259055934</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>49.5764493982003</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>18.5098329076879</v>
       </c>
       <c r="E26" t="n">
-        <v>5803.81988523893</v>
+        <v>3124.58219441824</v>
       </c>
       <c r="F26" t="n">
-        <v>5803.81988523893</v>
+        <v>10729.8181672031</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>815.567189791559</v>
+        <v>358.838259055934</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>818.550111965376</v>
+        <v>190.175207808154</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>27.5671865069904</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>10.5061233973486</v>
       </c>
       <c r="E27" t="n">
-        <v>6206.18926179525</v>
+        <v>1561.39699403449</v>
       </c>
       <c r="F27" t="n">
-        <v>6206.18926179525</v>
+        <v>5171.64115400719</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>818.550111965376</v>
+        <v>190.175207808154</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>838.384142722783</v>
+        <v>136.910033957911</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>20.2275918970087</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>7.76621478330216</v>
       </c>
       <c r="E28" t="n">
-        <v>5506.02517411165</v>
+        <v>1097.62118472345</v>
       </c>
       <c r="F28" t="n">
-        <v>5506.02517411165</v>
+        <v>3582.72094893842</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1277,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>836.384142722783</v>
+        <v>134.910033957911</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>848.246943912123</v>
+        <v>313.366892258067</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>43.1779718548128</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>16.0945016681682</v>
       </c>
       <c r="E29" t="n">
-        <v>6056.59260120776</v>
+        <v>2736.69281171361</v>
       </c>
       <c r="F29" t="n">
-        <v>6056.59260120776</v>
+        <v>9414.64071085955</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>848.246943912123</v>
+        <v>313.366892258067</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>864.261323039729</v>
+        <v>748.486558383625</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>94.8145606569345</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>34.0404967644862</v>
       </c>
       <c r="E30" t="n">
-        <v>6276.36919926261</v>
+        <v>7240.43394086059</v>
       </c>
       <c r="F30" t="n">
-        <v>6276.36919926261</v>
+        <v>26529.9193303119</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1341,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>862.261323039729</v>
+        <v>746.486558383625</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1352,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>901.077375946086</v>
+        <v>1684.67568305852</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>198.900470162514</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>69.1752424687636</v>
       </c>
       <c r="E31" t="n">
-        <v>5881.59347428</v>
+        <v>17756.6825180281</v>
       </c>
       <c r="F31" t="n">
-        <v>5881.59347428</v>
+        <v>68621.1223052615</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>900.077375946086</v>
+        <v>1683.67568305852</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1384,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>983.819033383018</v>
+        <v>3128.48854283288</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>348.722028289776</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>118.150888048014</v>
       </c>
       <c r="E32" t="n">
-        <v>6425.51662824419</v>
+        <v>35376.7773019115</v>
       </c>
       <c r="F32" t="n">
-        <v>6425.51662824419</v>
+        <v>142844.185627084</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1405,7 @@
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>980.819033383018</v>
+        <v>3125.48854283288</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1416,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>1377.25189175513</v>
+        <v>9115.85713861703</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>919.416500874286</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>297.652395237862</v>
       </c>
       <c r="E33" t="n">
-        <v>6386.97289086424</v>
+        <v>116576.906684081</v>
       </c>
       <c r="F33" t="n">
-        <v>6386.97289086424</v>
+        <v>508520.006143857</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1376.25189175513</v>
+        <v>9114.85713861703</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1448,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>3295.98569311376</v>
+        <v>24456.7837979473</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>2240.60561237074</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>694.417971368127</v>
       </c>
       <c r="E34" t="n">
-        <v>8201.09909914006</v>
+        <v>352390.784790919</v>
       </c>
       <c r="F34" t="n">
-        <v>8201.09909914006</v>
+        <v>1657796.73177586</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1469,7 @@
         <v>28</v>
       </c>
       <c r="I34" t="n">
-        <v>3267.98569311376</v>
+        <v>24428.7837979473</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1480,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>4301.19018217975</v>
+        <v>20664.9966975898</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1924.56663706445</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>600.922148178302</v>
       </c>
       <c r="E35" t="n">
-        <v>9451.8069153131</v>
+        <v>291727.518775412</v>
       </c>
       <c r="F35" t="n">
-        <v>9451.8069153131</v>
+        <v>1354686.4333021</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1501,7 @@
         <v>326</v>
       </c>
       <c r="I35" t="n">
-        <v>3975.19018217975</v>
+        <v>20338.9966975898</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1512,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1425.96524763453</v>
+        <v>6457.5200427849</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>672.027551450608</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>220.683823819501</v>
       </c>
       <c r="E36" t="n">
-        <v>6730.25935959166</v>
+        <v>79449.5582877761</v>
       </c>
       <c r="F36" t="n">
-        <v>6730.25935959166</v>
+        <v>338230.982079266</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1533,7 @@
         <v>174</v>
       </c>
       <c r="I36" t="n">
-        <v>1251.96524763453</v>
+        <v>6283.5200427849</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1544,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>875.428214632149</v>
+        <v>1004.87841726888</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>123.654465688648</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>43.8168979597704</v>
       </c>
       <c r="E37" t="n">
-        <v>5722.7973632889</v>
+        <v>10069.8313787077</v>
       </c>
       <c r="F37" t="n">
-        <v>5722.7973632889</v>
+        <v>37712.8242283553</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1565,7 @@
         <v>11</v>
       </c>
       <c r="I37" t="n">
-        <v>864.428214632149</v>
+        <v>993.878417268883</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1576,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>919.936023422893</v>
+        <v>567.451945166866</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>60.8193811749354</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>20.1949575103076</v>
       </c>
       <c r="E38" t="n">
-        <v>6181.51714252903</v>
+        <v>6723.37019955586</v>
       </c>
       <c r="F38" t="n">
-        <v>6181.51714252903</v>
+        <v>27950.7843431558</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>918.936023422893</v>
+        <v>566.451945166866</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1608,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>930.560960134567</v>
+        <v>287.586759233344</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>32.5339668951099</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>11.0509705921489</v>
       </c>
       <c r="E39" t="n">
-        <v>5961.64854150538</v>
+        <v>3185.09303217038</v>
       </c>
       <c r="F39" t="n">
-        <v>5961.64854150538</v>
+        <v>12692.7853105664</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1629,7 @@
         <v>11</v>
       </c>
       <c r="I39" t="n">
-        <v>919.560960134567</v>
+        <v>276.586759233344</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1640,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>934.997631344154</v>
+        <v>196.725391880035</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>22.6856771343147</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>7.75897017593774</v>
       </c>
       <c r="E40" t="n">
-        <v>5864.55326469771</v>
+        <v>2125.73253392217</v>
       </c>
       <c r="F40" t="n">
-        <v>5864.55326469771</v>
+        <v>8341.28812503199</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1661,7 @@
         <v>7</v>
       </c>
       <c r="I40" t="n">
-        <v>927.997631344154</v>
+        <v>189.725391880035</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1672,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>939.553681299157</v>
+        <v>447.069012905216</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>47.2786822693006</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>15.5904180477012</v>
       </c>
       <c r="E41" t="n">
-        <v>6080.29000654087</v>
+        <v>5382.38777479946</v>
       </c>
       <c r="F41" t="n">
-        <v>6080.29000654087</v>
+        <v>22601.0132633837</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1693,7 @@
         <v>9</v>
       </c>
       <c r="I41" t="n">
-        <v>930.553681299157</v>
+        <v>438.069012905216</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1704,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>944.487473468207</v>
+        <v>1064.79574488419</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>100.719153003989</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>31.6183169947843</v>
       </c>
       <c r="E42" t="n">
-        <v>6242.66290056234</v>
+        <v>14729.756361772</v>
       </c>
       <c r="F42" t="n">
-        <v>6242.66290056234</v>
+        <v>67521.7998029682</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1725,7 @@
         <v>21</v>
       </c>
       <c r="I42" t="n">
-        <v>923.487473468207</v>
+        <v>1043.79574488419</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,19 +1736,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>979.305084635551</v>
+        <v>2323.81750437259</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>203.553799395901</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>61.7654080605506</v>
       </c>
       <c r="E43" t="n">
-        <v>5938.29432913308</v>
+        <v>35396.5592172401</v>
       </c>
       <c r="F43" t="n">
-        <v>5938.29432913308</v>
+        <v>172519.045359236</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1757,7 @@
         <v>55</v>
       </c>
       <c r="I43" t="n">
-        <v>924.305084635551</v>
+        <v>2268.81750437259</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,19 +1768,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>1067.58445826029</v>
+        <v>4707.58615904083</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>381.92923475463</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>111.997508429812</v>
       </c>
       <c r="E44" t="n">
-        <v>6063.071839342</v>
+        <v>78974.6883278017</v>
       </c>
       <c r="F44" t="n">
-        <v>6063.071839342</v>
+        <v>409480.484288624</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,10 +1789,10 @@
         <v>1604</v>
       </c>
       <c r="I44" t="n">
-        <v>-536.415541739713</v>
+        <v>3103.58615904083</v>
       </c>
       <c r="J44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -1803,19 +1800,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>1476.71784550285</v>
+        <v>14645.0964969222</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1051.60300698666</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>292.044388857384</v>
       </c>
       <c r="E45" t="n">
-        <v>6398.54056984341</v>
+        <v>286901.518789614</v>
       </c>
       <c r="F45" t="n">
-        <v>6398.54056984341</v>
+        <v>1644456.4580831</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,10 +1821,10 @@
         <v>4198</v>
       </c>
       <c r="I45" t="n">
-        <v>-2721.28215449715</v>
+        <v>10447.0964969222</v>
       </c>
       <c r="J45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
@@ -1835,19 +1832,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>3414.93025566013</v>
+        <v>39252.6593204449</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2524.49214624674</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>667.61965467109</v>
       </c>
       <c r="E46" t="n">
-        <v>8675.89375120655</v>
+        <v>885834.341305213</v>
       </c>
       <c r="F46" t="n">
-        <v>8675.89375120655</v>
+        <v>5569156.86392915</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,10 +1853,10 @@
         <v>6494</v>
       </c>
       <c r="I46" t="n">
-        <v>-3079.06974433987</v>
+        <v>32758.6593204449</v>
       </c>
       <c r="J46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -1867,19 +1864,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>4399.54072855097</v>
+        <v>32973.3388080661</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>2161.70149448348</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>576.553045768789</v>
       </c>
       <c r="E47" t="n">
-        <v>9282.07656636155</v>
+        <v>725950.152890829</v>
       </c>
       <c r="F47" t="n">
-        <v>9282.07656636155</v>
+        <v>4490523.25340921</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,10 +1885,10 @@
         <v>5388</v>
       </c>
       <c r="I47" t="n">
-        <v>-988.459271449033</v>
+        <v>27585.3388080661</v>
       </c>
       <c r="J47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -1899,19 +1896,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>1489.01875849733</v>
+        <v>10574.5104968867</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>784.168787981598</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>220.917887825169</v>
       </c>
       <c r="E48" t="n">
-        <v>6744.77066944248</v>
+        <v>198818.945390694</v>
       </c>
       <c r="F48" t="n">
-        <v>6744.77066944248</v>
+        <v>1109594.63807559</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,10 +1917,10 @@
         <v>1685</v>
       </c>
       <c r="I48" t="n">
-        <v>-195.981241502666</v>
+        <v>8889.51049688674</v>
       </c>
       <c r="J48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
@@ -1931,19 +1928,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>962.785084083023</v>
+        <v>1597.84518566556</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>143.923253869361</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>44.2106487994262</v>
       </c>
       <c r="E49" t="n">
-        <v>6165.65147036005</v>
+        <v>23499.2776110655</v>
       </c>
       <c r="F49" t="n">
-        <v>6165.65147036005</v>
+        <v>111997.478644583</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1949,7 @@
         <v>154</v>
       </c>
       <c r="I49" t="n">
-        <v>808.785084083023</v>
+        <v>1443.84518566556</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
